--- a/消融实验结果统计.xlsx
+++ b/消融实验结果统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E695757-CDD6-4204-888D-B66AAA8B7571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EAC19C-3A82-45A6-A977-4ABEC10102A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTC without N attention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTC without T attention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,10 @@
   </si>
   <si>
     <t>AVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTC without G attention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +341,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,42 +375,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,7 +660,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -693,31 +684,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="20" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -776,7 +767,7 @@
       <c r="B3" s="3">
         <v>24</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>0.11655319482088</v>
       </c>
       <c r="D3" s="8">
@@ -924,7 +915,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7">
         <f>AVERAGE(C3:C5)</f>
@@ -938,51 +929,51 @@
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>0.12853633333333334</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>3.1351333333333335E-2</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
         <v>0.17697300000000002</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <f t="shared" si="0"/>
         <v>0.12468733333333333</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <f t="shared" si="0"/>
         <v>3.0092999999999998E-2</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <f t="shared" si="0"/>
         <v>0.17335266666666668</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <f t="shared" si="0"/>
         <v>0.13426733333333332</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <f t="shared" si="0"/>
         <v>3.3789E-2</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="20">
         <f t="shared" si="0"/>
         <v>0.1833393333333333</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="20">
         <f t="shared" si="0"/>
         <v>0.12584399999999998</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="20">
         <f t="shared" si="0"/>
         <v>3.0636333333333331E-2</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="27">
         <f t="shared" si="0"/>
         <v>0.17491599999999999</v>
       </c>
@@ -1090,14 +1081,14 @@
         <v>0.18262700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>96</v>
       </c>
       <c r="C9" s="7">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="8">
         <v>3.3048331737518297E-2</v>
       </c>
       <c r="E9" s="9">
@@ -1106,7 +1097,7 @@
       <c r="F9" s="2">
         <v>0.141123</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="1">
         <v>3.6353999999999997E-2</v>
       </c>
       <c r="H9" s="3">
@@ -1115,25 +1106,25 @@
       <c r="I9" s="2">
         <v>0.13598199999999999</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="1">
         <v>3.4543999999999998E-2</v>
       </c>
       <c r="K9" s="3">
         <v>0.185859</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="1">
         <v>0.14963499999999999</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="1">
         <v>3.9805E-2</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="1">
         <v>0.19951199999999999</v>
       </c>
       <c r="O9" s="2">
         <v>0.13303000000000001</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="1">
         <v>3.3294999999999998E-2</v>
       </c>
       <c r="Q9" s="3">
@@ -1142,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="18">
         <f>AVERAGE(C7:C9)</f>
@@ -1200,7 +1191,7 @@
         <f t="shared" si="1"/>
         <v>3.3023666666666666E-2</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="26">
         <f t="shared" si="1"/>
         <v>0.18171999999999999</v>
       </c>
@@ -1360,7 +1351,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="7">
         <f>AVERAGE(C11:C13)</f>
@@ -1418,7 +1409,7 @@
         <f t="shared" si="2"/>
         <v>3.3633666666666666E-2</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="28">
         <f t="shared" si="2"/>
         <v>0.18337166666666663</v>
       </c>
@@ -1430,13 +1421,13 @@
       <c r="B15" s="11">
         <v>24</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="23">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="24">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>7.8397959470748901E-2</v>
       </c>
       <c r="F15" s="15">
@@ -1483,10 +1474,10 @@
       <c r="C16" s="7">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>7.8251808881759602E-2</v>
       </c>
       <c r="F16" s="2">
@@ -1498,7 +1489,7 @@
       <c r="H16" s="9">
         <v>7.7981999999999996E-2</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <v>3.9220999999999999E-2</v>
       </c>
       <c r="J16" s="1">
@@ -1526,14 +1517,14 @@
         <v>7.8508999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>96</v>
       </c>
       <c r="C17" s="7">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="8">
         <v>6.0955644585192204E-3</v>
       </c>
       <c r="E17" s="9">
@@ -1542,34 +1533,34 @@
       <c r="F17" s="2">
         <v>4.1554000000000001E-2</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="1">
         <v>6.3369999999999998E-3</v>
       </c>
       <c r="H17" s="3">
         <v>7.9607999999999998E-2</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="20">
         <v>4.2533000000000001E-2</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="1">
         <v>6.8120000000000003E-3</v>
       </c>
       <c r="K17" s="3">
         <v>8.2535999999999998E-2</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="1">
         <v>4.3813999999999999E-2</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="1">
         <v>6.9319999999999998E-3</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="1">
         <v>8.3259E-2</v>
       </c>
       <c r="O17" s="2">
         <v>4.0398000000000003E-2</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="1">
         <v>6.463E-3</v>
       </c>
       <c r="Q17" s="3">
@@ -1578,7 +1569,7 @@
     </row>
     <row r="18" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18">
         <f>AVERAGE(C15:C17)</f>
@@ -1636,7 +1627,7 @@
         <f t="shared" si="3"/>
         <v>6.2456666666666667E-3</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="26">
         <f t="shared" si="3"/>
         <v>7.9021666666666671E-2</v>
       </c>
@@ -1666,7 +1657,7 @@
       <c r="H19" s="11">
         <v>7.9009999999999997E-2</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <v>3.9593999999999997E-2</v>
       </c>
       <c r="J19" s="10">
@@ -1701,10 +1692,10 @@
       <c r="C20" s="7">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>7.8470081090927096E-2</v>
       </c>
       <c r="F20" s="2">
@@ -1716,7 +1707,7 @@
       <c r="H20" s="9">
         <v>7.6873999999999998E-2</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <v>4.1147999999999997E-2</v>
       </c>
       <c r="J20" s="1">
@@ -1744,23 +1735,23 @@
         <v>7.8709000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>96</v>
       </c>
       <c r="C21" s="7">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="21">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>7.8514188528060899E-2</v>
       </c>
       <c r="F21" s="2">
         <v>4.0099000000000003E-2</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="8">
         <v>5.9940000000000002E-3</v>
       </c>
       <c r="H21" s="9">
@@ -1769,25 +1760,25 @@
       <c r="I21" s="2">
         <v>4.1829999999999999E-2</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="1">
         <v>6.9040000000000004E-3</v>
       </c>
       <c r="K21" s="3">
         <v>8.3087999999999995E-2</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="1">
         <v>4.4707999999999998E-2</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="1">
         <v>6.9230000000000003E-3</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="1">
         <v>8.3204E-2</v>
       </c>
       <c r="O21" s="2">
         <v>4.0162000000000003E-2</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="1">
         <v>6.4180000000000001E-3</v>
       </c>
       <c r="Q21" s="3">
@@ -1796,7 +1787,7 @@
     </row>
     <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="18">
         <f>AVERAGE(C19:C21)</f>
@@ -1854,7 +1845,7 @@
         <f t="shared" si="4"/>
         <v>6.2916666666666668E-3</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="26">
         <f t="shared" si="4"/>
         <v>7.9318666666666662E-2</v>
       </c>
@@ -1919,10 +1910,10 @@
       <c r="C24" s="7">
         <v>3.9179753512143999E-2</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>6.1110127717256503E-3</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>7.8172966837882996E-2</v>
       </c>
       <c r="F24" s="2">
@@ -1966,7 +1957,7 @@
       <c r="B25" s="3">
         <v>96</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>3.9633352309465401E-2</v>
       </c>
       <c r="D25" s="8">
@@ -2014,7 +2005,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="7">
         <f>AVERAGE(C23:C25)</f>
@@ -2072,7 +2063,7 @@
         <f t="shared" si="5"/>
         <v>6.2883333333333333E-3</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="28">
         <f t="shared" si="5"/>
         <v>7.9293999999999989E-2</v>
       </c>

--- a/消融实验结果统计.xlsx
+++ b/消融实验结果统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EAC19C-3A82-45A6-A977-4ABEC10102A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC125F-211F-4164-A3DB-69742D7375D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>pred_len</t>
   </si>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wind_120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solar_120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTC without C attention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,11 +74,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVE</t>
+    <t>GTC without G attention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GTC without G attention</t>
+    <t>wind_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load_96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load_168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -255,26 +274,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top style="thick">
         <color auto="1"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thick">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right/>
+      <top style="thick">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -282,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,9 +352,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,33 +361,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,6 +413,102 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,39 +810,41 @@
     <col min="9" max="9" width="8.6640625" style="2"/>
     <col min="10" max="10" width="8.6640625" style="1"/>
     <col min="11" max="11" width="8.6640625" style="3"/>
-    <col min="12" max="14" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="8.6640625" style="2"/>
+    <col min="13" max="13" width="8.6640625" style="1"/>
+    <col min="14" max="14" width="8.6640625" style="3"/>
     <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="8.6640625" style="1"/>
+    <col min="16" max="16" width="8.6640625" style="37"/>
     <col min="17" max="17" width="8.6640625" style="3"/>
     <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="31"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -741,13 +877,13 @@
       <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -767,7 +903,7 @@
       <c r="B3" s="3">
         <v>24</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>0.11655319482088</v>
       </c>
       <c r="D3" s="8">
@@ -776,40 +912,40 @@
       <c r="E3" s="9">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="38">
         <v>0.120327</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="39">
         <v>2.8596E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="40">
         <v>0.169104</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="41">
         <v>0.11629399999999999</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="39">
         <v>2.7459000000000001E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="40">
         <v>0.16570699999999999</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="38">
         <v>0.11901200000000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="39">
         <v>2.8039000000000001E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="40">
         <v>0.16744899999999999</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="38">
         <v>0.11896900000000001</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="42">
         <v>2.8368999999999998E-2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="40">
         <v>0.168432</v>
       </c>
     </row>
@@ -826,40 +962,40 @@
       <c r="E4" s="9">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="38">
         <v>0.13214699999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="39">
         <v>3.2337999999999999E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="40">
         <v>0.17982699999999999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="38">
         <v>0.125414</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="39">
         <v>2.9864000000000002E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="40">
         <v>0.17281299999999999</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="38">
         <v>0.132991</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="39">
         <v>3.3369999999999997E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="40">
         <v>0.182674</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="38">
         <v>0.12370100000000001</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="42">
         <v>2.9826999999999999E-2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="40">
         <v>0.172706</v>
       </c>
     </row>
@@ -876,104 +1012,104 @@
       <c r="E5" s="9">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="38">
         <v>0.133135</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="39">
         <v>3.3119999999999997E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="40">
         <v>0.18198800000000001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="38">
         <v>0.132354</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="39">
         <v>3.2955999999999999E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="40">
         <v>0.181538</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="38">
         <v>0.15079899999999999</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="39">
         <v>3.9958E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="40">
         <v>0.19989499999999999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="38">
         <v>0.13486200000000001</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="42">
         <v>3.3713E-2</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="40">
         <v>0.18361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="29">
         <f t="shared" ref="D6:Q6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="30">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="43">
         <f t="shared" si="0"/>
         <v>0.12853633333333334</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="44">
         <f t="shared" si="0"/>
         <v>3.1351333333333335E-2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="45">
         <f t="shared" si="0"/>
         <v>0.17697300000000002</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="43">
         <f t="shared" si="0"/>
         <v>0.12468733333333333</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="44">
         <f t="shared" si="0"/>
         <v>3.0092999999999998E-2</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="45">
         <f t="shared" si="0"/>
         <v>0.17335266666666668</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="43">
         <f t="shared" si="0"/>
         <v>0.13426733333333332</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="44">
         <f t="shared" si="0"/>
         <v>3.3789E-2</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="45">
         <f t="shared" si="0"/>
         <v>0.1833393333333333</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="43">
         <f t="shared" si="0"/>
         <v>0.12584399999999998</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="44">
         <f t="shared" si="0"/>
         <v>3.0636333333333331E-2</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="45">
         <f t="shared" si="0"/>
         <v>0.17491599999999999</v>
       </c>
@@ -994,40 +1130,40 @@
       <c r="E7" s="14">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="46">
         <v>0.13042500000000001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="47">
         <v>3.1951E-2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="48">
         <v>0.17874899999999999</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="46">
         <v>0.130944</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="47">
         <v>3.2077000000000001E-2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="48">
         <v>0.17910000000000001</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="46">
         <v>0.136963</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="47">
         <v>3.4204999999999999E-2</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="48">
         <v>0.184947</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="46">
         <v>0.13136300000000001</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="47">
         <v>3.2424000000000001E-2</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="48">
         <v>0.180065</v>
       </c>
     </row>
@@ -1044,40 +1180,40 @@
       <c r="E8" s="9">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="38">
         <v>0.136106</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="39">
         <v>3.4556999999999997E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="40">
         <v>0.185895</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="38">
         <v>0.13350500000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="39">
         <v>3.3446999999999998E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="40">
         <v>0.18288499999999999</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="38">
         <v>0.137493</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="39">
         <v>3.5031E-2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="40">
         <v>0.187165</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="38">
         <v>0.132522</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="42">
         <v>3.3352E-2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="40">
         <v>0.18262700000000001</v>
       </c>
     </row>
@@ -1094,159 +1230,159 @@
       <c r="E9" s="9">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="38">
         <v>0.141123</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="39">
         <v>3.6353999999999997E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="40">
         <v>0.190668</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="38">
         <v>0.13598199999999999</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="39">
         <v>3.4543999999999998E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="40">
         <v>0.185859</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="38">
         <v>0.14963499999999999</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="39">
         <v>3.9805E-2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="40">
         <v>0.19951199999999999</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="38">
         <v>0.13303000000000001</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="42">
         <v>3.3294999999999998E-2</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="40">
         <v>0.18246799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="18">
+    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="17">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="29">
         <f>AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="30">
         <f t="shared" ref="E10:Q10" si="1">AVERAGE(E7:E9)</f>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="49">
         <f t="shared" si="1"/>
         <v>0.13588466666666668</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="50">
         <f t="shared" si="1"/>
         <v>3.4287333333333329E-2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="51">
         <f t="shared" si="1"/>
         <v>0.18510400000000002</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="49">
         <f t="shared" si="1"/>
         <v>0.13347700000000001</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="50">
         <f t="shared" si="1"/>
         <v>3.3355999999999997E-2</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="51">
         <f t="shared" si="1"/>
         <v>0.18261466666666668</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="49">
         <f t="shared" si="1"/>
         <v>0.14136366666666667</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="50">
         <f t="shared" si="1"/>
         <v>3.6346999999999997E-2</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="51">
         <f t="shared" si="1"/>
         <v>0.19054133333333334</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="49">
         <f t="shared" si="1"/>
         <v>0.13230500000000001</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="50">
         <f t="shared" si="1"/>
         <v>3.3023666666666666E-2</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="51">
         <f t="shared" si="1"/>
         <v>0.18171999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>24</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.12915480136871299</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3.2010942697524997E-2</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.17891602218151001</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.13234000000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3.3246999999999999E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.182338</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.13269500000000001</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3.3082E-2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.18188599999999999</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.13370799999999999</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3.3369999999999997E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.18267600000000001</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.12976299999999999</v>
-      </c>
-      <c r="P11" s="1">
-        <v>3.2122999999999999E-2</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.179228</v>
+      <c r="C11" s="12">
+        <v>0.130949437618255</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3.1894195824861499E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.178589463233947</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.132267996668815</v>
+      </c>
+      <c r="G11" s="39">
+        <v>3.2453984022140503E-2</v>
+      </c>
+      <c r="H11" s="40">
+        <v>0.18014989793300601</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.13249793648719699</v>
+      </c>
+      <c r="J11" s="39">
+        <v>3.2400872558355297E-2</v>
+      </c>
+      <c r="K11" s="40">
+        <v>0.18000242114067</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0.14085702598094901</v>
+      </c>
+      <c r="M11" s="39">
+        <v>3.5485893487930298E-2</v>
+      </c>
+      <c r="N11" s="40">
+        <v>0.18837699294090199</v>
+      </c>
+      <c r="O11" s="38">
+        <v>0.13249734044075001</v>
+      </c>
+      <c r="P11" s="42">
+        <v>3.2574217766523299E-2</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>0.18048329651355699</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,49 +1390,49 @@
         <v>48</v>
       </c>
       <c r="C12" s="7">
-        <v>0.13329496979713401</v>
+        <v>0.136193811893463</v>
       </c>
       <c r="D12" s="8">
-        <v>3.3311016857623998E-2</v>
+        <v>3.3979825675487497E-2</v>
       </c>
       <c r="E12" s="9">
-        <v>0.182513058185577</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.13747400000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3.4837E-2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.18664700000000001</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.13755600000000001</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3.4795E-2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.186533</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.14272899999999999</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3.6832999999999998E-2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.19191800000000001</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.13586500000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <v>3.4306999999999997E-2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.185223</v>
+        <v>0.18433617055416099</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0.13935665786266299</v>
+      </c>
+      <c r="G12" s="39">
+        <v>3.4776080399751601E-2</v>
+      </c>
+      <c r="H12" s="40">
+        <v>0.18648345768451599</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.13695621490478499</v>
+      </c>
+      <c r="J12" s="39">
+        <v>3.4273173660039902E-2</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0.185130149126052</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0.15267913043498901</v>
+      </c>
+      <c r="M12" s="39">
+        <v>4.0454253554344101E-2</v>
+      </c>
+      <c r="N12" s="40">
+        <v>0.201132431626319</v>
+      </c>
+      <c r="O12" s="38">
+        <v>0.13994543254375399</v>
+      </c>
+      <c r="P12" s="42">
+        <v>3.54488715529441E-2</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>0.18827870488166801</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,121 +1440,121 @@
         <v>96</v>
       </c>
       <c r="C13" s="7">
-        <v>0.13535465300083099</v>
+        <v>0.13881157338619199</v>
       </c>
       <c r="D13" s="8">
-        <v>3.4015025943517602E-2</v>
+        <v>3.5383198410272598E-2</v>
       </c>
       <c r="E13" s="9">
-        <v>0.184431627392768</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.14540400000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3.6777999999999998E-2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.191777</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.13630500000000001</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.4235000000000002E-2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.185027</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.15793699999999999</v>
-      </c>
-      <c r="M13" s="1">
-        <v>4.2861999999999997E-2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.20703099999999999</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.137152</v>
-      </c>
-      <c r="P13" s="1">
-        <v>3.4471000000000002E-2</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.185664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.188104227185249</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0.14120377600192999</v>
+      </c>
+      <c r="G13" s="39">
+        <v>3.61713804304599E-2</v>
+      </c>
+      <c r="H13" s="40">
+        <v>0.190187752246856</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.14897474646568201</v>
+      </c>
+      <c r="J13" s="39">
+        <v>3.8393545895814798E-2</v>
+      </c>
+      <c r="K13" s="40">
+        <v>0.19594271481037101</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0.15807057917118</v>
+      </c>
+      <c r="M13" s="39">
+        <v>4.3243978172540602E-2</v>
+      </c>
+      <c r="N13" s="40">
+        <v>0.20795185863971699</v>
+      </c>
+      <c r="O13" s="38">
+        <v>0.14456957578658999</v>
+      </c>
+      <c r="P13" s="42">
+        <v>3.7420883774757302E-2</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>0.193444788455963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <f>AVERAGE(C11:C13)</f>
-        <v>0.132601474722226</v>
-      </c>
-      <c r="D14" s="7">
+        <v>0.13531827429930332</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" ref="D14:Q14" si="2">AVERAGE(D11:D13)</f>
-        <v>3.3112328499555532E-2</v>
-      </c>
-      <c r="E14" s="7">
+        <v>3.3752406636873865E-2</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>0.18195356925328499</v>
-      </c>
-      <c r="F14" s="2">
+        <v>0.18367662032445234</v>
+      </c>
+      <c r="F14" s="52">
         <f t="shared" si="2"/>
-        <v>0.138406</v>
-      </c>
-      <c r="G14" s="2">
+        <v>0.13760947684446934</v>
+      </c>
+      <c r="G14" s="53">
         <f t="shared" si="2"/>
-        <v>3.4954000000000006E-2</v>
-      </c>
-      <c r="H14" s="2">
+        <v>3.4467148284117337E-2</v>
+      </c>
+      <c r="H14" s="54">
         <f t="shared" si="2"/>
-        <v>0.18692066666666665</v>
-      </c>
-      <c r="I14" s="2">
+        <v>0.18560703595479267</v>
+      </c>
+      <c r="I14" s="52">
         <f t="shared" si="2"/>
-        <v>0.13551866666666668</v>
-      </c>
-      <c r="J14" s="2">
+        <v>0.13947629928588801</v>
+      </c>
+      <c r="J14" s="53">
         <f t="shared" si="2"/>
-        <v>3.4037333333333329E-2</v>
-      </c>
-      <c r="K14" s="2">
+        <v>3.5022530704736668E-2</v>
+      </c>
+      <c r="K14" s="54">
         <f t="shared" si="2"/>
-        <v>0.18448200000000001</v>
-      </c>
-      <c r="L14" s="2">
+        <v>0.18702509502569767</v>
+      </c>
+      <c r="L14" s="52">
         <f t="shared" si="2"/>
-        <v>0.14479133333333333</v>
-      </c>
-      <c r="M14" s="2">
+        <v>0.15053557852903934</v>
+      </c>
+      <c r="M14" s="53">
         <f t="shared" si="2"/>
-        <v>3.7688333333333331E-2</v>
-      </c>
-      <c r="N14" s="2">
+        <v>3.9728041738271665E-2</v>
+      </c>
+      <c r="N14" s="54">
         <f t="shared" si="2"/>
-        <v>0.19387499999999999</v>
-      </c>
-      <c r="O14" s="2">
+        <v>0.19915376106897931</v>
+      </c>
+      <c r="O14" s="52">
         <f t="shared" si="2"/>
-        <v>0.13425999999999999</v>
-      </c>
-      <c r="P14" s="2">
+        <v>0.13900411625703135</v>
+      </c>
+      <c r="P14" s="55">
         <f t="shared" si="2"/>
-        <v>3.3633666666666666E-2</v>
-      </c>
-      <c r="Q14" s="28">
+        <v>3.5147991031408234E-2</v>
+      </c>
+      <c r="Q14" s="54">
         <f t="shared" si="2"/>
-        <v>0.18337166666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+        <v>0.18740226328372933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="20" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="21">
         <v>24</v>
       </c>
       <c r="C15" s="23">
@@ -1430,40 +1566,40 @@
       <c r="E15" s="25">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="56">
         <v>3.8753999999999997E-2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="57">
         <v>6.352E-3</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="58">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="59">
         <v>3.7189E-2</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="57">
         <v>6.1770000000000002E-3</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="58">
         <v>7.8594999999999998E-2</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="56">
         <v>3.9495000000000002E-2</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="57">
         <v>6.2560000000000003E-3</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="58">
         <v>7.9097000000000001E-2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="56">
         <v>3.7275999999999997E-2</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="60">
         <v>6.11E-3</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="61">
         <v>7.8163999999999997E-2</v>
       </c>
     </row>
@@ -1474,46 +1610,46 @@
       <c r="C16" s="7">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="28">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="38">
         <v>3.9119000000000001E-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="62">
         <v>6.0809999999999996E-3</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="63">
         <v>7.7981999999999996E-2</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="52">
         <v>3.9220999999999999E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="39">
         <v>6.169E-3</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="40">
         <v>7.8546000000000005E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="38">
         <v>4.1679000000000001E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="39">
         <v>6.5079999999999999E-3</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="40">
         <v>8.0673999999999996E-2</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="38">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="42">
         <v>6.1640000000000002E-3</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="40">
         <v>7.8508999999999995E-2</v>
       </c>
     </row>
@@ -1530,104 +1666,104 @@
       <c r="E17" s="9">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="38">
         <v>4.1554000000000001E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="39">
         <v>6.3369999999999998E-3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="40">
         <v>7.9607999999999998E-2</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="52">
         <v>4.2533000000000001E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="39">
         <v>6.8120000000000003E-3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="40">
         <v>8.2535999999999998E-2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="38">
         <v>4.3813999999999999E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="39">
         <v>6.9319999999999998E-3</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="40">
         <v>8.3259E-2</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="38">
         <v>4.0398000000000003E-2</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="42">
         <v>6.463E-3</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="40">
         <v>8.0392000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="18">
+    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="17">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="29">
         <f t="shared" ref="D18:Q18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="30">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="49">
         <f t="shared" si="3"/>
         <v>3.9809000000000004E-2</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="50">
         <f t="shared" si="3"/>
         <v>6.2566666666666665E-3</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="51">
         <f t="shared" si="3"/>
         <v>7.9096666666666662E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="49">
         <f t="shared" si="3"/>
         <v>3.9647666666666671E-2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="50">
         <f t="shared" si="3"/>
         <v>6.3860000000000002E-3</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="51">
         <f t="shared" si="3"/>
         <v>7.9892333333333329E-2</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="49">
         <f t="shared" si="3"/>
         <v>4.166266666666666E-2</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="50">
         <f t="shared" si="3"/>
         <v>6.5653333333333336E-3</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="51">
         <f t="shared" si="3"/>
         <v>8.1009999999999999E-2</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="49">
         <f t="shared" si="3"/>
         <v>3.8927999999999997E-2</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="50">
         <f t="shared" si="3"/>
         <v>6.2456666666666667E-3</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="51">
         <f t="shared" si="3"/>
         <v>7.9021666666666671E-2</v>
       </c>
@@ -1648,40 +1784,40 @@
       <c r="E19" s="14">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="46">
         <v>4.0704999999999998E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="47">
         <v>6.2430000000000003E-3</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="48">
         <v>7.9009999999999997E-2</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="64">
         <v>3.9593999999999997E-2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="47">
         <v>6.2529999999999999E-3</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="48">
         <v>7.9074000000000005E-2</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="46">
         <v>4.0729000000000001E-2</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="47">
         <v>6.4260000000000003E-3</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="48">
         <v>8.0159999999999995E-2</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="46">
         <v>3.9806000000000001E-2</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="47">
         <v>6.2620000000000002E-3</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="48">
         <v>7.9135999999999998E-2</v>
       </c>
     </row>
@@ -1692,46 +1828,46 @@
       <c r="C20" s="7">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="28">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="38">
         <v>4.0011999999999999E-2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="62">
         <v>5.9100000000000003E-3</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="63">
         <v>7.6873999999999998E-2</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="52">
         <v>4.1147999999999997E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="39">
         <v>6.3150000000000003E-3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="40">
         <v>7.9465999999999995E-2</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="38">
         <v>4.1945000000000003E-2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="39">
         <v>6.5919999999999998E-3</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="40">
         <v>8.1190999999999999E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="38">
         <v>4.0365999999999999E-2</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="42">
         <v>6.195E-3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="40">
         <v>7.8709000000000001E-2</v>
       </c>
     </row>
@@ -1742,165 +1878,165 @@
       <c r="C21" s="7">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="28">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="38">
         <v>4.0099000000000003E-2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="62">
         <v>5.9940000000000002E-3</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="63">
         <v>7.7418000000000001E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="38">
         <v>4.1829999999999999E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="39">
         <v>6.9040000000000004E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="40">
         <v>8.3087999999999995E-2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="38">
         <v>4.4707999999999998E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="39">
         <v>6.9230000000000003E-3</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="40">
         <v>8.3204E-2</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="38">
         <v>4.0162000000000003E-2</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="42">
         <v>6.4180000000000001E-3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="40">
         <v>8.0111000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="18">
+    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="17">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <f t="shared" ref="D22:Q22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="49">
         <f t="shared" si="4"/>
         <v>4.0272000000000002E-2</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="65">
         <f t="shared" si="4"/>
         <v>6.0489999999999997E-3</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="66">
         <f t="shared" si="4"/>
         <v>7.7767333333333341E-2</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="49">
         <f t="shared" si="4"/>
         <v>4.0857333333333329E-2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="50">
         <f t="shared" si="4"/>
         <v>6.4906666666666663E-3</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="51">
         <f t="shared" si="4"/>
         <v>8.0542666666666665E-2</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="49">
         <f t="shared" si="4"/>
         <v>4.2460666666666667E-2</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="50">
         <f t="shared" si="4"/>
         <v>6.6470000000000001E-3</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="51">
         <f t="shared" si="4"/>
         <v>8.1518333333333332E-2</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="49">
         <f t="shared" si="4"/>
         <v>4.0111333333333332E-2</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="50">
         <f t="shared" si="4"/>
         <v>6.2916666666666668E-3</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="51">
         <f t="shared" si="4"/>
         <v>7.9318666666666662E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3">
         <v>24</v>
       </c>
-      <c r="C23" s="7">
-        <v>3.85042950510978E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>6.3458806835114904E-3</v>
-      </c>
-      <c r="E23" s="9">
-        <v>7.9661034047603593E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.0882000000000002E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6.6379999999999998E-3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>8.1474000000000005E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>4.1002999999999998E-2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>6.6350000000000003E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>8.1452999999999998E-2</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4.1308999999999998E-2</v>
-      </c>
-      <c r="M23" s="1">
-        <v>6.7689999999999998E-3</v>
-      </c>
-      <c r="N23" s="1">
-        <v>8.2270999999999997E-2</v>
-      </c>
-      <c r="O23" s="2">
-        <v>3.9574999999999999E-2</v>
-      </c>
-      <c r="P23" s="1">
-        <v>6.489E-3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>8.0556000000000003E-2</v>
+      <c r="C23" s="12">
+        <v>3.8539212197065298E-2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>5.9217507950961503E-3</v>
+      </c>
+      <c r="E23" s="14">
+        <v>7.69529119133949E-2</v>
+      </c>
+      <c r="F23" s="38">
+        <v>4.0582798421382897E-2</v>
+      </c>
+      <c r="G23" s="39">
+        <v>6.3216532580554399E-3</v>
+      </c>
+      <c r="H23" s="40">
+        <v>7.9508826136588995E-2</v>
+      </c>
+      <c r="I23" s="38">
+        <v>3.9034359157085398E-2</v>
+      </c>
+      <c r="J23" s="39">
+        <v>6.07768865302205E-3</v>
+      </c>
+      <c r="K23" s="40">
+        <v>7.7959530055522905E-2</v>
+      </c>
+      <c r="L23" s="38">
+        <v>4.2591895908117197E-2</v>
+      </c>
+      <c r="M23" s="39">
+        <v>6.6067804582417003E-3</v>
+      </c>
+      <c r="N23" s="40">
+        <v>8.1282101571559906E-2</v>
+      </c>
+      <c r="O23" s="38">
+        <v>3.9725478738546302E-2</v>
+      </c>
+      <c r="P23" s="42">
+        <v>6.3425307162106002E-3</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>7.9640008509159005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,173 +2044,879 @@
         <v>48</v>
       </c>
       <c r="C24" s="7">
-        <v>3.9179753512143999E-2</v>
-      </c>
-      <c r="D24" s="21">
-        <v>6.1110127717256503E-3</v>
-      </c>
-      <c r="E24" s="22">
-        <v>7.8172966837882996E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>4.3392E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6.4070000000000004E-3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8.0043000000000003E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>3.9882000000000001E-2</v>
-      </c>
-      <c r="J24" s="8">
-        <v>6.0340000000000003E-3</v>
-      </c>
-      <c r="K24" s="9">
-        <v>7.7681E-2</v>
-      </c>
-      <c r="L24" s="1">
-        <v>4.1932999999999998E-2</v>
-      </c>
-      <c r="M24" s="1">
-        <v>6.463E-3</v>
-      </c>
-      <c r="N24" s="1">
-        <v>8.0394999999999994E-2</v>
-      </c>
-      <c r="O24" s="2">
-        <v>3.9780000000000003E-2</v>
-      </c>
-      <c r="P24" s="1">
-        <v>6.1970000000000003E-3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>7.8718999999999997E-2</v>
+        <v>3.9741411805152803E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>6.0138301923870997E-3</v>
+      </c>
+      <c r="E24" s="9">
+        <v>7.7548891305923406E-2</v>
+      </c>
+      <c r="F24" s="38">
+        <v>4.2023394256830202E-2</v>
+      </c>
+      <c r="G24" s="39">
+        <v>6.1471303924918097E-3</v>
+      </c>
+      <c r="H24" s="40">
+        <v>7.8403636813163702E-2</v>
+      </c>
+      <c r="I24" s="38">
+        <v>4.18001040816307E-2</v>
+      </c>
+      <c r="J24" s="53">
+        <v>6.1094439588487096E-3</v>
+      </c>
+      <c r="K24" s="54">
+        <v>7.8162930905818898E-2</v>
+      </c>
+      <c r="L24" s="38">
+        <v>4.4313747435808098E-2</v>
+      </c>
+      <c r="M24" s="39">
+        <v>6.86982739716768E-3</v>
+      </c>
+      <c r="N24" s="40">
+        <v>8.2884423434734303E-2</v>
+      </c>
+      <c r="O24" s="38">
+        <v>4.1370373219251598E-2</v>
+      </c>
+      <c r="P24" s="42">
+        <v>6.35089306160807E-3</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>7.9692490398883806E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>96</v>
       </c>
-      <c r="C25" s="20">
-        <v>3.9633352309465401E-2</v>
+      <c r="C25" s="18">
+        <v>4.0421377867460202E-2</v>
       </c>
       <c r="D25" s="8">
-        <v>6.0280994512140699E-3</v>
+        <v>6.0362918302416801E-3</v>
       </c>
       <c r="E25" s="9">
-        <v>7.7640838921070099E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4.3073E-2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>6.378E-3</v>
-      </c>
-      <c r="H25" s="3">
-        <v>7.9862000000000002E-2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>4.2379E-2</v>
-      </c>
-      <c r="J25" s="1">
-        <v>6.7980000000000002E-3</v>
-      </c>
-      <c r="K25" s="3">
-        <v>8.2447999999999994E-2</v>
-      </c>
-      <c r="L25" s="1">
-        <v>4.2960999999999999E-2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>6.7380000000000001E-3</v>
-      </c>
-      <c r="N25" s="1">
-        <v>8.2085000000000005E-2</v>
-      </c>
-      <c r="O25" s="7">
-        <v>3.9623999999999999E-2</v>
-      </c>
-      <c r="P25" s="1">
-        <v>6.1789999999999996E-3</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>7.8606999999999996E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7.7693574130535098E-2</v>
+      </c>
+      <c r="F25" s="38">
+        <v>4.26099300384521E-2</v>
+      </c>
+      <c r="G25" s="39">
+        <v>6.4076744019985199E-3</v>
+      </c>
+      <c r="H25" s="40">
+        <v>8.0047950148582403E-2</v>
+      </c>
+      <c r="I25" s="38">
+        <v>4.1659776121377903E-2</v>
+      </c>
+      <c r="J25" s="39">
+        <v>6.2938230112194998E-3</v>
+      </c>
+      <c r="K25" s="40">
+        <v>7.9333618283271706E-2</v>
+      </c>
+      <c r="L25" s="38">
+        <v>4.5678116381168303E-2</v>
+      </c>
+      <c r="M25" s="39">
+        <v>7.1982750669121699E-3</v>
+      </c>
+      <c r="N25" s="40">
+        <v>8.4842652082443196E-2</v>
+      </c>
+      <c r="O25" s="41">
+        <v>4.00714501738548E-2</v>
+      </c>
+      <c r="P25" s="42">
+        <v>6.0923262499272797E-3</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>7.8053355216979897E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <f>AVERAGE(C23:C25)</f>
-        <v>3.9105800290902402E-2</v>
-      </c>
-      <c r="D26" s="7">
+        <v>3.9567333956559432E-2</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" ref="D26:Q26" si="5">AVERAGE(D23:D25)</f>
-        <v>6.1616643021504035E-3</v>
-      </c>
-      <c r="E26" s="7">
+        <v>5.9906242725749764E-3</v>
+      </c>
+      <c r="E26" s="9">
         <f t="shared" si="5"/>
-        <v>7.8491613268852234E-2</v>
-      </c>
-      <c r="F26" s="2">
+        <v>7.7398459116617802E-2</v>
+      </c>
+      <c r="F26" s="52">
         <f t="shared" si="5"/>
-        <v>4.2448999999999994E-2</v>
-      </c>
-      <c r="G26" s="2">
+        <v>4.1738707572221728E-2</v>
+      </c>
+      <c r="G26" s="53">
         <f t="shared" si="5"/>
-        <v>6.4743333333333345E-3</v>
-      </c>
-      <c r="H26" s="2">
+        <v>6.2921526841819226E-3</v>
+      </c>
+      <c r="H26" s="54">
         <f t="shared" si="5"/>
-        <v>8.0459666666666665E-2</v>
-      </c>
-      <c r="I26" s="2">
+        <v>7.9320137699445029E-2</v>
+      </c>
+      <c r="I26" s="52">
         <f t="shared" si="5"/>
-        <v>4.1088E-2</v>
-      </c>
-      <c r="J26" s="2">
+        <v>4.0831413120031336E-2</v>
+      </c>
+      <c r="J26" s="53">
         <f t="shared" si="5"/>
-        <v>6.4889999999999991E-3</v>
-      </c>
-      <c r="K26" s="2">
+        <v>6.1603185410300867E-3</v>
+      </c>
+      <c r="K26" s="54">
         <f t="shared" si="5"/>
-        <v>8.0527333333333326E-2</v>
-      </c>
-      <c r="L26" s="2">
+        <v>7.8485359748204503E-2</v>
+      </c>
+      <c r="L26" s="52">
         <f t="shared" si="5"/>
-        <v>4.206766666666667E-2</v>
-      </c>
-      <c r="M26" s="2">
+        <v>4.4194586575031197E-2</v>
+      </c>
+      <c r="M26" s="53">
         <f t="shared" si="5"/>
-        <v>6.6566666666666675E-3</v>
-      </c>
-      <c r="N26" s="2">
+        <v>6.8916276407738506E-3</v>
+      </c>
+      <c r="N26" s="54">
         <f t="shared" si="5"/>
-        <v>8.1583666666666665E-2</v>
-      </c>
-      <c r="O26" s="2">
+        <v>8.3003059029579121E-2</v>
+      </c>
+      <c r="O26" s="52">
         <f t="shared" si="5"/>
-        <v>3.9659666666666669E-2</v>
-      </c>
-      <c r="P26" s="2">
+        <v>4.03891007105509E-2</v>
+      </c>
+      <c r="P26" s="55">
         <f t="shared" si="5"/>
-        <v>6.2883333333333333E-3</v>
-      </c>
-      <c r="Q26" s="28">
+        <v>6.2619166759153161E-3</v>
+      </c>
+      <c r="Q26" s="54">
         <f t="shared" si="5"/>
-        <v>7.9293999999999989E-2</v>
+        <v>7.9128618041674231E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="20" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="21">
+        <v>24</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1.8416857346892301E-2</v>
+      </c>
+      <c r="D27" s="27">
+        <v>6.4510153606534004E-4</v>
+      </c>
+      <c r="E27" s="27">
+        <v>2.5398848578333799E-2</v>
+      </c>
+      <c r="F27" s="56">
+        <v>1.89602188766002E-2</v>
+      </c>
+      <c r="G27" s="57">
+        <v>6.8918056786060301E-4</v>
+      </c>
+      <c r="H27" s="58">
+        <v>2.6252249255776398E-2</v>
+      </c>
+      <c r="I27" s="56">
+        <v>1.8877305090427399E-2</v>
+      </c>
+      <c r="J27" s="57">
+        <v>6.8032083800062505E-4</v>
+      </c>
+      <c r="K27" s="58">
+        <v>2.6082960888743401E-2</v>
+      </c>
+      <c r="L27" s="56">
+        <v>1.89931914210319E-2</v>
+      </c>
+      <c r="M27" s="57">
+        <v>6.7546515492722305E-4</v>
+      </c>
+      <c r="N27" s="58">
+        <v>2.59897131472826E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>1.8717905506491599E-2</v>
+      </c>
+      <c r="P27" s="57">
+        <v>6.6153053194284396E-4</v>
+      </c>
+      <c r="Q27" s="58">
+        <v>2.5720234960317601E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>48</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.3212268948554899E-2</v>
+      </c>
+      <c r="D28" s="28">
+        <v>9.6889137057587504E-4</v>
+      </c>
+      <c r="E28" s="28">
+        <v>3.1127020716667099E-2</v>
+      </c>
+      <c r="F28" s="38">
+        <v>2.3614522069692601E-2</v>
+      </c>
+      <c r="G28" s="39">
+        <v>9.9844660144299204E-4</v>
+      </c>
+      <c r="H28" s="40">
+        <v>3.1598206609487499E-2</v>
+      </c>
+      <c r="I28" s="41">
+        <v>2.2905623540282201E-2</v>
+      </c>
+      <c r="J28" s="62">
+        <v>9.4932602951303103E-4</v>
+      </c>
+      <c r="K28" s="63">
+        <v>3.0811134725809E-2</v>
+      </c>
+      <c r="L28" s="38">
+        <v>2.5313993915915399E-2</v>
+      </c>
+      <c r="M28" s="39">
+        <v>1.13694032188504E-3</v>
+      </c>
+      <c r="N28" s="40">
+        <v>3.3718544989824198E-2</v>
+      </c>
+      <c r="O28" s="38">
+        <v>2.33765263110399E-2</v>
+      </c>
+      <c r="P28" s="42">
+        <v>9.7302102949470195E-4</v>
+      </c>
+      <c r="Q28" s="40">
+        <v>3.1193284317851001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>96</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2.6290317997336301E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.2118930462747799E-3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>3.4812252968549701E-2</v>
+      </c>
+      <c r="F29" s="38">
+        <v>2.9598770663142201E-2</v>
+      </c>
+      <c r="G29" s="39">
+        <v>1.42921216320246E-3</v>
+      </c>
+      <c r="H29" s="40">
+        <v>3.7804923951625803E-2</v>
+      </c>
+      <c r="I29" s="38">
+        <v>2.6595311239361701E-2</v>
+      </c>
+      <c r="J29" s="39">
+        <v>1.2388912728056301E-3</v>
+      </c>
+      <c r="K29" s="40">
+        <v>3.5197887569665902E-2</v>
+      </c>
+      <c r="L29" s="38">
+        <v>3.1745262444019297E-2</v>
+      </c>
+      <c r="M29" s="39">
+        <v>1.6765590989962201E-3</v>
+      </c>
+      <c r="N29" s="40">
+        <v>4.0945805609226199E-2</v>
+      </c>
+      <c r="O29" s="41">
+        <v>2.91491635143756E-2</v>
+      </c>
+      <c r="P29" s="42">
+        <v>1.4336106833070499E-3</v>
+      </c>
+      <c r="Q29" s="40">
+        <v>3.7863053381443003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="7">
+        <f>AVERAGE(C27:C29)</f>
+        <v>2.2639814764261166E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" ref="D30:Q30" si="6">AVERAGE(D27:D29)</f>
+        <v>9.4196198430533163E-4</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="6"/>
+        <v>3.0446040754516863E-2</v>
+      </c>
+      <c r="F30" s="52">
+        <f t="shared" si="6"/>
+        <v>2.4057837203144999E-2</v>
+      </c>
+      <c r="G30" s="53">
+        <f t="shared" si="6"/>
+        <v>1.0389464441686851E-3</v>
+      </c>
+      <c r="H30" s="53">
+        <f t="shared" si="6"/>
+        <v>3.18851266056299E-2</v>
+      </c>
+      <c r="I30" s="52">
+        <f t="shared" si="6"/>
+        <v>2.2792746623357101E-2</v>
+      </c>
+      <c r="J30" s="53">
+        <f t="shared" si="6"/>
+        <v>9.5617938010642868E-4</v>
+      </c>
+      <c r="K30" s="53">
+        <f t="shared" si="6"/>
+        <v>3.0697327728072765E-2</v>
+      </c>
+      <c r="L30" s="52">
+        <f t="shared" si="6"/>
+        <v>2.5350815926988863E-2</v>
+      </c>
+      <c r="M30" s="53">
+        <f t="shared" si="6"/>
+        <v>1.162988191936161E-3</v>
+      </c>
+      <c r="N30" s="53">
+        <f t="shared" si="6"/>
+        <v>3.3551354582110997E-2</v>
+      </c>
+      <c r="O30" s="52">
+        <f t="shared" si="6"/>
+        <v>2.3747865110635702E-2</v>
+      </c>
+      <c r="P30" s="55">
+        <f t="shared" si="6"/>
+        <v>1.0227207482481986E-3</v>
+      </c>
+      <c r="Q30" s="54">
+        <f t="shared" si="6"/>
+        <v>3.1592190886537204E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="11">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1.8019666895270299E-2</v>
+      </c>
+      <c r="D31" s="13">
+        <v>6.1920157168060498E-4</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2.4883762001991199E-2</v>
+      </c>
+      <c r="F31" s="46">
+        <v>1.8998576328158299E-2</v>
+      </c>
+      <c r="G31" s="47">
+        <v>6.8325561005622105E-4</v>
+      </c>
+      <c r="H31" s="48">
+        <v>2.6139158755540799E-2</v>
+      </c>
+      <c r="I31" s="46">
+        <v>1.8121792003512299E-2</v>
+      </c>
+      <c r="J31" s="47">
+        <v>6.2581745442003001E-4</v>
+      </c>
+      <c r="K31" s="48">
+        <v>2.5016343221068299E-2</v>
+      </c>
+      <c r="L31" s="46">
+        <v>1.8728464841842599E-2</v>
+      </c>
+      <c r="M31" s="47">
+        <v>6.6108600003644802E-4</v>
+      </c>
+      <c r="N31" s="48">
+        <v>2.57115922868251E-2</v>
+      </c>
+      <c r="O31" s="46">
+        <v>1.8413078039884501E-2</v>
+      </c>
+      <c r="P31" s="47">
+        <v>6.5994902979582505E-4</v>
+      </c>
+      <c r="Q31" s="48">
+        <v>2.5689473375678E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>48</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2.1260784938931399E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8.1665714969858495E-4</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2.8577214106917301E-2</v>
+      </c>
+      <c r="F32" s="38">
+        <v>2.26310119032859E-2</v>
+      </c>
+      <c r="G32" s="39">
+        <v>8.9270889293402401E-4</v>
+      </c>
+      <c r="H32" s="40">
+        <v>2.9878234490752199E-2</v>
+      </c>
+      <c r="I32" s="41">
+        <v>2.1246971562504699E-2</v>
+      </c>
+      <c r="J32" s="39">
+        <v>8.1900606164708701E-4</v>
+      </c>
+      <c r="K32" s="40">
+        <v>2.8618281707167601E-2</v>
+      </c>
+      <c r="L32" s="38">
+        <v>2.2992128506302799E-2</v>
+      </c>
+      <c r="M32" s="39">
+        <v>9.4971287762746204E-4</v>
+      </c>
+      <c r="N32" s="40">
+        <v>3.0817411839961999E-2</v>
+      </c>
+      <c r="O32" s="38">
+        <v>2.1941686049103699E-2</v>
+      </c>
+      <c r="P32" s="42">
+        <v>8.6203665705397703E-4</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>2.93604601174592E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>96</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2.2915853187441802E-2</v>
+      </c>
+      <c r="D33" s="28">
+        <v>9.53608483541756E-4</v>
+      </c>
+      <c r="E33" s="28">
+        <v>3.0880551785230598E-2</v>
+      </c>
+      <c r="F33" s="38">
+        <v>2.37818080931901E-2</v>
+      </c>
+      <c r="G33" s="39">
+        <v>1.01070362143218E-3</v>
+      </c>
+      <c r="H33" s="40">
+        <v>3.1791564077138901E-2</v>
+      </c>
+      <c r="I33" s="41">
+        <v>2.2637242451310099E-2</v>
+      </c>
+      <c r="J33" s="62">
+        <v>9.3249033670872396E-4</v>
+      </c>
+      <c r="K33" s="63">
+        <v>3.0536705628037401E-2</v>
+      </c>
+      <c r="L33" s="38">
+        <v>2.5457691401243199E-2</v>
+      </c>
+      <c r="M33" s="39">
+        <v>1.1614374816417601E-3</v>
+      </c>
+      <c r="N33" s="40">
+        <v>3.4079868346452699E-2</v>
+      </c>
+      <c r="O33" s="38">
+        <v>2.3907091468572599E-2</v>
+      </c>
+      <c r="P33" s="42">
+        <v>1.0148914298042601E-3</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>3.18573601543903E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="18">
+        <f>AVERAGE(C31:C33)</f>
+        <v>2.0732101673881165E-2</v>
+      </c>
+      <c r="D34" s="28">
+        <f t="shared" ref="D34:Q34" si="7">AVERAGE(D31:D33)</f>
+        <v>7.9648906830698198E-4</v>
+      </c>
+      <c r="E34" s="28">
+        <f t="shared" si="7"/>
+        <v>2.8113842631379699E-2</v>
+      </c>
+      <c r="F34" s="52">
+        <f t="shared" si="7"/>
+        <v>2.1803798774878102E-2</v>
+      </c>
+      <c r="G34" s="53">
+        <f t="shared" si="7"/>
+        <v>8.6222270814080831E-4</v>
+      </c>
+      <c r="H34" s="53">
+        <f t="shared" si="7"/>
+        <v>2.9269652441143965E-2</v>
+      </c>
+      <c r="I34" s="41">
+        <f t="shared" si="7"/>
+        <v>2.0668668672442367E-2</v>
+      </c>
+      <c r="J34" s="62">
+        <f t="shared" si="7"/>
+        <v>7.9243795092528036E-4</v>
+      </c>
+      <c r="K34" s="62">
+        <f t="shared" si="7"/>
+        <v>2.8057110185424432E-2</v>
+      </c>
+      <c r="L34" s="52">
+        <f t="shared" si="7"/>
+        <v>2.2392761583129531E-2</v>
+      </c>
+      <c r="M34" s="53">
+        <f t="shared" si="7"/>
+        <v>9.2407878643522342E-4</v>
+      </c>
+      <c r="N34" s="53">
+        <f t="shared" si="7"/>
+        <v>3.0202957491079933E-2</v>
+      </c>
+      <c r="O34" s="52">
+        <f t="shared" si="7"/>
+        <v>2.1420618519186932E-2</v>
+      </c>
+      <c r="P34" s="55">
+        <f t="shared" si="7"/>
+        <v>8.4562570555135402E-4</v>
+      </c>
+      <c r="Q34" s="54">
+        <f t="shared" si="7"/>
+        <v>2.8969097882509166E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="11">
+        <v>24</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1.6250062733888598E-2</v>
+      </c>
+      <c r="D35" s="13">
+        <v>5.4900307441130205E-4</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.34308149665594E-2</v>
+      </c>
+      <c r="F35" s="46">
+        <v>1.6641713678836802E-2</v>
+      </c>
+      <c r="G35" s="47">
+        <v>5.5738835362717498E-4</v>
+      </c>
+      <c r="H35" s="48">
+        <v>2.3609073832631101E-2</v>
+      </c>
+      <c r="I35" s="46">
+        <v>1.64120011031627E-2</v>
+      </c>
+      <c r="J35" s="47">
+        <v>5.5329594761133096E-4</v>
+      </c>
+      <c r="K35" s="48">
+        <v>2.3522242903709401E-2</v>
+      </c>
+      <c r="L35" s="46">
+        <v>1.63750555366277E-2</v>
+      </c>
+      <c r="M35" s="47">
+        <v>5.5307237198576299E-4</v>
+      </c>
+      <c r="N35" s="48">
+        <v>2.3517491295933699E-2</v>
+      </c>
+      <c r="O35" s="46">
+        <v>1.6425851732492398E-2</v>
+      </c>
+      <c r="P35" s="47">
+        <v>5.5078824516385696E-4</v>
+      </c>
+      <c r="Q35" s="48">
+        <v>2.34688781201839E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>48</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1.7871698364615399E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>6.4205413218587604E-4</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2.5338787585496899E-2</v>
+      </c>
+      <c r="F36" s="38">
+        <v>1.8231838941574E-2</v>
+      </c>
+      <c r="G36" s="39">
+        <v>6.7056377884000496E-4</v>
+      </c>
+      <c r="H36" s="40">
+        <v>2.5895245373248998E-2</v>
+      </c>
+      <c r="I36" s="38">
+        <v>1.80826131254434E-2</v>
+      </c>
+      <c r="J36" s="39">
+        <v>6.6337088355794495E-4</v>
+      </c>
+      <c r="K36" s="40">
+        <v>2.5755986571311899E-2</v>
+      </c>
+      <c r="L36" s="38">
+        <v>1.9916031509637801E-2</v>
+      </c>
+      <c r="M36" s="39">
+        <v>7.63464660849422E-4</v>
+      </c>
+      <c r="N36" s="40">
+        <v>2.76308637112379E-2</v>
+      </c>
+      <c r="O36" s="38">
+        <v>1.82049460709095E-2</v>
+      </c>
+      <c r="P36" s="42">
+        <v>6.6712277475744399E-4</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>2.58287191390991E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2.0298028364777499E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8.1362412311136701E-4</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2.85240970551967E-2</v>
+      </c>
+      <c r="F37" s="38">
+        <v>2.07943059504032E-2</v>
+      </c>
+      <c r="G37" s="39">
+        <v>8.5297890473157102E-4</v>
+      </c>
+      <c r="H37" s="40">
+        <v>2.9205802828073502E-2</v>
+      </c>
+      <c r="I37" s="38">
+        <v>2.0559759810566899E-2</v>
+      </c>
+      <c r="J37" s="39">
+        <v>8.2638638559728796E-4</v>
+      </c>
+      <c r="K37" s="40">
+        <v>2.8746936470270101E-2</v>
+      </c>
+      <c r="L37" s="38">
+        <v>2.2938961163163098E-2</v>
+      </c>
+      <c r="M37" s="39">
+        <v>1.01795513182878E-3</v>
+      </c>
+      <c r="N37" s="40">
+        <v>3.1905408948659897E-2</v>
+      </c>
+      <c r="O37" s="38">
+        <v>2.0585192367434502E-2</v>
+      </c>
+      <c r="P37" s="42">
+        <v>8.2616438157856399E-4</v>
+      </c>
+      <c r="Q37" s="40">
+        <v>2.8743075206875801E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="7">
+        <f>AVERAGE(C35:C37)</f>
+        <v>1.8139929821093831E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" ref="D38:Q38" si="8">AVERAGE(D35:D37)</f>
+        <v>6.682271099028484E-4</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="8"/>
+        <v>2.5764566535750998E-2</v>
+      </c>
+      <c r="F38" s="52">
+        <f t="shared" si="8"/>
+        <v>1.8555952856938E-2</v>
+      </c>
+      <c r="G38" s="53">
+        <f t="shared" si="8"/>
+        <v>6.9364367906625047E-4</v>
+      </c>
+      <c r="H38" s="53">
+        <f t="shared" si="8"/>
+        <v>2.6236707344651198E-2</v>
+      </c>
+      <c r="I38" s="52">
+        <f t="shared" si="8"/>
+        <v>1.8351458013057667E-2</v>
+      </c>
+      <c r="J38" s="53">
+        <f t="shared" si="8"/>
+        <v>6.8101773892218799E-4</v>
+      </c>
+      <c r="K38" s="53">
+        <f t="shared" si="8"/>
+        <v>2.6008388648430469E-2</v>
+      </c>
+      <c r="L38" s="52">
+        <f t="shared" si="8"/>
+        <v>1.974334940314287E-2</v>
+      </c>
+      <c r="M38" s="53">
+        <f t="shared" si="8"/>
+        <v>7.7816405488798839E-4</v>
+      </c>
+      <c r="N38" s="53">
+        <f t="shared" si="8"/>
+        <v>2.7684587985277165E-2</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="8"/>
+        <v>1.8405330056945467E-2</v>
+      </c>
+      <c r="P38" s="55">
+        <f t="shared" si="8"/>
+        <v>6.8135846716662165E-4</v>
+      </c>
+      <c r="Q38" s="54">
+        <f t="shared" si="8"/>
+        <v>2.6013557488719599E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="20" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="26">
+        <v>28</v>
+      </c>
+      <c r="D39" s="27">
+        <v>28</v>
+      </c>
+      <c r="E39" s="67">
+        <v>28</v>
+      </c>
+      <c r="F39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20">
+        <v>4</v>
+      </c>
+      <c r="H39" s="21">
+        <v>4</v>
+      </c>
+      <c r="I39" s="22">
+        <v>6</v>
+      </c>
+      <c r="J39" s="20">
+        <v>3</v>
+      </c>
+      <c r="K39" s="21">
+        <v>3</v>
+      </c>
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
+      <c r="M39" s="20">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
+        <v>2</v>
+      </c>
+      <c r="P39" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/消融实验结果统计.xlsx
+++ b/消融实验结果统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EC125F-211F-4164-A3DB-69742D7375D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430FD425-8513-4103-B133-3AFAAB16BD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="25600" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,6 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,45 +331,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,28 +352,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -406,109 +376,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -814,37 +781,37 @@
     <col min="13" max="13" width="8.6640625" style="1"/>
     <col min="14" max="14" width="8.6640625" style="3"/>
     <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="8.6640625" style="37"/>
+    <col min="16" max="16" width="8.6640625" style="1"/>
     <col min="17" max="17" width="8.6640625" style="3"/>
     <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="33" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="33" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="33" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -903,49 +870,49 @@
       <c r="B3" s="3">
         <v>24</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="22">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="23">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="24">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="25">
         <v>0.120327</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="26">
         <v>2.8596E-2</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="27">
         <v>0.169104</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="28">
         <v>0.11629399999999999</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="26">
         <v>2.7459000000000001E-2</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="27">
         <v>0.16570699999999999</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="25">
         <v>0.11901200000000001</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="26">
         <v>2.8039000000000001E-2</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N3" s="27">
         <v>0.16744899999999999</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="25">
         <v>0.11896900000000001</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="26">
         <v>2.8368999999999998E-2</v>
       </c>
-      <c r="Q3" s="40">
+      <c r="Q3" s="27">
         <v>0.168432</v>
       </c>
     </row>
@@ -953,49 +920,49 @@
       <c r="B4" s="3">
         <v>48</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="28">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="23">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="24">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="25">
         <v>0.13214699999999999</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="26">
         <v>3.2337999999999999E-2</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="27">
         <v>0.17982699999999999</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="25">
         <v>0.125414</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="26">
         <v>2.9864000000000002E-2</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="27">
         <v>0.17281299999999999</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="25">
         <v>0.132991</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="26">
         <v>3.3369999999999997E-2</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="27">
         <v>0.182674</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="25">
         <v>0.12370100000000001</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="26">
         <v>2.9826999999999999E-2</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="27">
         <v>0.172706</v>
       </c>
     </row>
@@ -1003,49 +970,49 @@
       <c r="B5" s="3">
         <v>96</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="28">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="23">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="24">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="25">
         <v>0.133135</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="26">
         <v>3.3119999999999997E-2</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="27">
         <v>0.18198800000000001</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="25">
         <v>0.132354</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="26">
         <v>3.2955999999999999E-2</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="27">
         <v>0.181538</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="25">
         <v>0.15079899999999999</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="26">
         <v>3.9958E-2</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="27">
         <v>0.19989499999999999</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="25">
         <v>0.13486200000000001</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="26">
         <v>3.3713E-2</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="27">
         <v>0.18361</v>
       </c>
     </row>
@@ -1053,117 +1020,117 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="29">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="30">
         <f t="shared" ref="D6:Q6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="32">
         <f t="shared" si="0"/>
         <v>0.12853633333333334</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="33">
         <f t="shared" si="0"/>
         <v>3.1351333333333335E-2</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>0.17697300000000002</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="32">
         <f t="shared" si="0"/>
         <v>0.12468733333333333</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="33">
         <f t="shared" si="0"/>
         <v>3.0092999999999998E-2</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="34">
         <f t="shared" si="0"/>
         <v>0.17335266666666668</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="32">
         <f t="shared" si="0"/>
         <v>0.13426733333333332</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="33">
         <f t="shared" si="0"/>
         <v>3.3789E-2</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="34">
         <f t="shared" si="0"/>
         <v>0.1833393333333333</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="32">
         <f t="shared" si="0"/>
         <v>0.12584399999999998</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="33">
         <f t="shared" si="0"/>
         <v>3.0636333333333331E-2</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="34">
         <f t="shared" si="0"/>
         <v>0.17491599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="35">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="36">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="37">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="38">
         <v>0.13042500000000001</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="39">
         <v>3.1951E-2</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="40">
         <v>0.17874899999999999</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="38">
         <v>0.130944</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="39">
         <v>3.2077000000000001E-2</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="40">
         <v>0.17910000000000001</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="38">
         <v>0.136963</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="39">
         <v>3.4204999999999999E-2</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="40">
         <v>0.184947</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="38">
         <v>0.13136300000000001</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="39">
         <v>3.2424000000000001E-2</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="40">
         <v>0.180065</v>
       </c>
     </row>
@@ -1171,49 +1138,49 @@
       <c r="B8" s="3">
         <v>48</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="28">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="23">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="24">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="25">
         <v>0.136106</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="26">
         <v>3.4556999999999997E-2</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="27">
         <v>0.185895</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="25">
         <v>0.13350500000000001</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="26">
         <v>3.3446999999999998E-2</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="27">
         <v>0.18288499999999999</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="25">
         <v>0.137493</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="26">
         <v>3.5031E-2</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="27">
         <v>0.187165</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="25">
         <v>0.132522</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="26">
         <v>3.3352E-2</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="27">
         <v>0.18262700000000001</v>
       </c>
     </row>
@@ -1221,113 +1188,113 @@
       <c r="B9" s="3">
         <v>96</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="28">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="23">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="24">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="25">
         <v>0.141123</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="26">
         <v>3.6353999999999997E-2</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="27">
         <v>0.190668</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="25">
         <v>0.13598199999999999</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="26">
         <v>3.4543999999999998E-2</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="27">
         <v>0.185859</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="25">
         <v>0.14963499999999999</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="26">
         <v>3.9805E-2</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="27">
         <v>0.19951199999999999</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="25">
         <v>0.13303000000000001</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="26">
         <v>3.3294999999999998E-2</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="27">
         <v>0.18246799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="29">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <f>AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="31">
         <f t="shared" ref="E10:Q10" si="1">AVERAGE(E7:E9)</f>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="41">
         <f t="shared" si="1"/>
         <v>0.13588466666666668</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="42">
         <f t="shared" si="1"/>
         <v>3.4287333333333329E-2</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="43">
         <f t="shared" si="1"/>
         <v>0.18510400000000002</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="41">
         <f t="shared" si="1"/>
         <v>0.13347700000000001</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="42">
         <f t="shared" si="1"/>
         <v>3.3355999999999997E-2</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="43">
         <f t="shared" si="1"/>
         <v>0.18261466666666668</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="41">
         <f t="shared" si="1"/>
         <v>0.14136366666666667</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="42">
         <f t="shared" si="1"/>
         <v>3.6346999999999997E-2</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="43">
         <f t="shared" si="1"/>
         <v>0.19054133333333334</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="41">
         <f t="shared" si="1"/>
         <v>0.13230500000000001</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="42">
         <f t="shared" si="1"/>
         <v>3.3023666666666666E-2</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="43">
         <f t="shared" si="1"/>
         <v>0.18171999999999999</v>
       </c>
@@ -1339,49 +1306,49 @@
       <c r="B11" s="3">
         <v>24</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="35">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="36">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="37">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="25">
         <v>0.132267996668815</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="26">
         <v>3.2453984022140503E-2</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="27">
         <v>0.18014989793300601</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="25">
         <v>0.13249793648719699</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="26">
         <v>3.2400872558355297E-2</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="27">
         <v>0.18000242114067</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="25">
         <v>0.14085702598094901</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="26">
         <v>3.5485893487930298E-2</v>
       </c>
-      <c r="N11" s="40">
+      <c r="N11" s="27">
         <v>0.18837699294090199</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="25">
         <v>0.13249734044075001</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="26">
         <v>3.2574217766523299E-2</v>
       </c>
-      <c r="Q11" s="40">
+      <c r="Q11" s="27">
         <v>0.18048329651355699</v>
       </c>
     </row>
@@ -1389,49 +1356,49 @@
       <c r="B12" s="3">
         <v>48</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="28">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="23">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="24">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="25">
         <v>0.13935665786266299</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="26">
         <v>3.4776080399751601E-2</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="27">
         <v>0.18648345768451599</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="25">
         <v>0.13695621490478499</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="26">
         <v>3.4273173660039902E-2</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="27">
         <v>0.185130149126052</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="25">
         <v>0.15267913043498901</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="26">
         <v>4.0454253554344101E-2</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="27">
         <v>0.201132431626319</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="25">
         <v>0.13994543254375399</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="26">
         <v>3.54488715529441E-2</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="27">
         <v>0.18827870488166801</v>
       </c>
     </row>
@@ -1439,49 +1406,49 @@
       <c r="B13" s="3">
         <v>96</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="28">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="23">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="24">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="25">
         <v>0.14120377600192999</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="26">
         <v>3.61713804304599E-2</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="27">
         <v>0.190187752246856</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="25">
         <v>0.14897474646568201</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="26">
         <v>3.8393545895814798E-2</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="27">
         <v>0.19594271481037101</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="25">
         <v>0.15807057917118</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="26">
         <v>4.3243978172540602E-2</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="27">
         <v>0.20795185863971699</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="25">
         <v>0.14456957578658999</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="26">
         <v>3.7420883774757302E-2</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="27">
         <v>0.193444788455963</v>
       </c>
     </row>
@@ -1489,117 +1456,117 @@
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="28">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="23">
         <f t="shared" ref="D14:Q14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="24">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="22">
         <f t="shared" si="2"/>
         <v>0.13760947684446934</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="44">
         <f t="shared" si="2"/>
         <v>3.4467148284117337E-2</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="45">
         <f t="shared" si="2"/>
         <v>0.18560703595479267</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="22">
         <f t="shared" si="2"/>
         <v>0.13947629928588801</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="44">
         <f t="shared" si="2"/>
         <v>3.5022530704736668E-2</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="45">
         <f t="shared" si="2"/>
         <v>0.18702509502569767</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="22">
         <f t="shared" si="2"/>
         <v>0.15053557852903934</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="44">
         <f t="shared" si="2"/>
         <v>3.9728041738271665E-2</v>
       </c>
-      <c r="N14" s="54">
+      <c r="N14" s="45">
         <f t="shared" si="2"/>
         <v>0.19915376106897931</v>
       </c>
-      <c r="O14" s="52">
+      <c r="O14" s="22">
         <f t="shared" si="2"/>
         <v>0.13900411625703135</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="44">
         <f t="shared" si="2"/>
         <v>3.5147991031408234E-2</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="45">
         <f t="shared" si="2"/>
         <v>0.18740226328372933</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="20" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="46">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="47">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="48">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="49">
         <v>3.8753999999999997E-2</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="50">
         <v>6.352E-3</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="51">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="52">
         <v>3.7189E-2</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="50">
         <v>6.1770000000000002E-3</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="51">
         <v>7.8594999999999998E-2</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="49">
         <v>3.9495000000000002E-2</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="50">
         <v>6.2560000000000003E-3</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="51">
         <v>7.9097000000000001E-2</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="49">
         <v>3.7275999999999997E-2</v>
       </c>
-      <c r="P15" s="60">
+      <c r="P15" s="53">
         <v>6.11E-3</v>
       </c>
-      <c r="Q15" s="61">
+      <c r="Q15" s="54">
         <v>7.8163999999999997E-2</v>
       </c>
     </row>
@@ -1607,49 +1574,49 @@
       <c r="B16" s="3">
         <v>48</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="28">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="44">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="45">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="25">
         <v>3.9119000000000001E-2</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="23">
         <v>6.0809999999999996E-3</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="24">
         <v>7.7981999999999996E-2</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="22">
         <v>3.9220999999999999E-2</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="26">
         <v>6.169E-3</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="27">
         <v>7.8546000000000005E-2</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="25">
         <v>4.1679000000000001E-2</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="26">
         <v>6.5079999999999999E-3</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="27">
         <v>8.0673999999999996E-2</v>
       </c>
-      <c r="O16" s="38">
+      <c r="O16" s="25">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="26">
         <v>6.1640000000000002E-3</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="27">
         <v>7.8508999999999995E-2</v>
       </c>
     </row>
@@ -1657,167 +1624,167 @@
       <c r="B17" s="3">
         <v>96</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="28">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="23">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="24">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="25">
         <v>4.1554000000000001E-2</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="26">
         <v>6.3369999999999998E-3</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="27">
         <v>7.9607999999999998E-2</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="22">
         <v>4.2533000000000001E-2</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="26">
         <v>6.8120000000000003E-3</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="27">
         <v>8.2535999999999998E-2</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="25">
         <v>4.3813999999999999E-2</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="26">
         <v>6.9319999999999998E-3</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="27">
         <v>8.3259E-2</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="25">
         <v>4.0398000000000003E-2</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="26">
         <v>6.463E-3</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="27">
         <v>8.0392000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="29">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="30">
         <f t="shared" ref="D18:Q18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="31">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="41">
         <f t="shared" si="3"/>
         <v>3.9809000000000004E-2</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="42">
         <f t="shared" si="3"/>
         <v>6.2566666666666665E-3</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="43">
         <f t="shared" si="3"/>
         <v>7.9096666666666662E-2</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="41">
         <f t="shared" si="3"/>
         <v>3.9647666666666671E-2</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="42">
         <f t="shared" si="3"/>
         <v>6.3860000000000002E-3</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="43">
         <f t="shared" si="3"/>
         <v>7.9892333333333329E-2</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="41">
         <f t="shared" si="3"/>
         <v>4.166266666666666E-2</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="42">
         <f t="shared" si="3"/>
         <v>6.5653333333333336E-3</v>
       </c>
-      <c r="N18" s="51">
+      <c r="N18" s="43">
         <f t="shared" si="3"/>
         <v>8.1009999999999999E-2</v>
       </c>
-      <c r="O18" s="49">
+      <c r="O18" s="41">
         <f t="shared" si="3"/>
         <v>3.8927999999999997E-2</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="42">
         <f t="shared" si="3"/>
         <v>6.2456666666666667E-3</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="43">
         <f t="shared" si="3"/>
         <v>7.9021666666666671E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>24</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="35">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="36">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="37">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="38">
         <v>4.0704999999999998E-2</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="39">
         <v>6.2430000000000003E-3</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="40">
         <v>7.9009999999999997E-2</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="55">
         <v>3.9593999999999997E-2</v>
       </c>
-      <c r="J19" s="47">
+      <c r="J19" s="39">
         <v>6.2529999999999999E-3</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="40">
         <v>7.9074000000000005E-2</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="38">
         <v>4.0729000000000001E-2</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="39">
         <v>6.4260000000000003E-3</v>
       </c>
-      <c r="N19" s="48">
+      <c r="N19" s="40">
         <v>8.0159999999999995E-2</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="38">
         <v>3.9806000000000001E-2</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="39">
         <v>6.2620000000000002E-3</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="40">
         <v>7.9135999999999998E-2</v>
       </c>
     </row>
@@ -1825,49 +1792,49 @@
       <c r="B20" s="3">
         <v>48</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="28">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="44">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="45">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="25">
         <v>4.0011999999999999E-2</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="23">
         <v>5.9100000000000003E-3</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="24">
         <v>7.6873999999999998E-2</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="22">
         <v>4.1147999999999997E-2</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="26">
         <v>6.3150000000000003E-3</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="27">
         <v>7.9465999999999995E-2</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="25">
         <v>4.1945000000000003E-2</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="26">
         <v>6.5919999999999998E-3</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="27">
         <v>8.1190999999999999E-2</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20" s="25">
         <v>4.0365999999999999E-2</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="26">
         <v>6.195E-3</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="27">
         <v>7.8709000000000001E-2</v>
       </c>
     </row>
@@ -1875,113 +1842,113 @@
       <c r="B21" s="3">
         <v>96</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="28">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="44">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="45">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="25">
         <v>4.0099000000000003E-2</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="23">
         <v>5.9940000000000002E-3</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="24">
         <v>7.7418000000000001E-2</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="25">
         <v>4.1829999999999999E-2</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="26">
         <v>6.9040000000000004E-3</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="27">
         <v>8.3087999999999995E-2</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="25">
         <v>4.4707999999999998E-2</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="26">
         <v>6.9230000000000003E-3</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="27">
         <v>8.3204E-2</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="25">
         <v>4.0162000000000003E-2</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="26">
         <v>6.4180000000000001E-3</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q21" s="27">
         <v>8.0111000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="29">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="42">
         <f t="shared" ref="D22:Q22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="43">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="41">
         <f t="shared" si="4"/>
         <v>4.0272000000000002E-2</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="30">
         <f t="shared" si="4"/>
         <v>6.0489999999999997E-3</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="31">
         <f t="shared" si="4"/>
         <v>7.7767333333333341E-2</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="41">
         <f t="shared" si="4"/>
         <v>4.0857333333333329E-2</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="42">
         <f t="shared" si="4"/>
         <v>6.4906666666666663E-3</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="43">
         <f t="shared" si="4"/>
         <v>8.0542666666666665E-2</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="41">
         <f t="shared" si="4"/>
         <v>4.2460666666666667E-2</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="42">
         <f t="shared" si="4"/>
         <v>6.6470000000000001E-3</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="43">
         <f t="shared" si="4"/>
         <v>8.1518333333333332E-2</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="41">
         <f t="shared" si="4"/>
         <v>4.0111333333333332E-2</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="42">
         <f t="shared" si="4"/>
         <v>6.2916666666666668E-3</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="43">
         <f t="shared" si="4"/>
         <v>7.9318666666666662E-2</v>
       </c>
@@ -1993,49 +1960,49 @@
       <c r="B23" s="3">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="35">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="36">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="37">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="25">
         <v>4.0582798421382897E-2</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="26">
         <v>6.3216532580554399E-3</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="27">
         <v>7.9508826136588995E-2</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="25">
         <v>3.9034359157085398E-2</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="26">
         <v>6.07768865302205E-3</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="27">
         <v>7.7959530055522905E-2</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="25">
         <v>4.2591895908117197E-2</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="26">
         <v>6.6067804582417003E-3</v>
       </c>
-      <c r="N23" s="40">
+      <c r="N23" s="27">
         <v>8.1282101571559906E-2</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="25">
         <v>3.9725478738546302E-2</v>
       </c>
-      <c r="P23" s="42">
+      <c r="P23" s="26">
         <v>6.3425307162106002E-3</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="Q23" s="27">
         <v>7.9640008509159005E-2</v>
       </c>
     </row>
@@ -2043,49 +2010,49 @@
       <c r="B24" s="3">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="28">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="23">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="24">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="25">
         <v>4.2023394256830202E-2</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="26">
         <v>6.1471303924918097E-3</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="27">
         <v>7.8403636813163702E-2</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="25">
         <v>4.18001040816307E-2</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="44">
         <v>6.1094439588487096E-3</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="45">
         <v>7.8162930905818898E-2</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="25">
         <v>4.4313747435808098E-2</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="26">
         <v>6.86982739716768E-3</v>
       </c>
-      <c r="N24" s="40">
+      <c r="N24" s="27">
         <v>8.2884423434734303E-2</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="25">
         <v>4.1370373219251598E-2</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="26">
         <v>6.35089306160807E-3</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="27">
         <v>7.9692490398883806E-2</v>
       </c>
     </row>
@@ -2093,49 +2060,49 @@
       <c r="B25" s="3">
         <v>96</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="22">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="23">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="24">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="25">
         <v>4.26099300384521E-2</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="26">
         <v>6.4076744019985199E-3</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="27">
         <v>8.0047950148582403E-2</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="25">
         <v>4.1659776121377903E-2</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="26">
         <v>6.2938230112194998E-3</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="27">
         <v>7.9333618283271706E-2</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="25">
         <v>4.5678116381168303E-2</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="26">
         <v>7.1982750669121699E-3</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="27">
         <v>8.4842652082443196E-2</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="28">
         <v>4.00714501738548E-2</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="26">
         <v>6.0923262499272797E-3</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="27">
         <v>7.8053355216979897E-2</v>
       </c>
     </row>
@@ -2143,117 +2110,117 @@
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="28">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="23">
         <f t="shared" ref="D26:Q26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="24">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="22">
         <f t="shared" si="5"/>
         <v>4.1738707572221728E-2</v>
       </c>
-      <c r="G26" s="53">
+      <c r="G26" s="44">
         <f t="shared" si="5"/>
         <v>6.2921526841819226E-3</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="45">
         <f t="shared" si="5"/>
         <v>7.9320137699445029E-2</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="22">
         <f t="shared" si="5"/>
         <v>4.0831413120031336E-2</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="44">
         <f t="shared" si="5"/>
         <v>6.1603185410300867E-3</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="45">
         <f t="shared" si="5"/>
         <v>7.8485359748204503E-2</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="22">
         <f t="shared" si="5"/>
         <v>4.4194586575031197E-2</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="44">
         <f t="shared" si="5"/>
         <v>6.8916276407738506E-3</v>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="45">
         <f t="shared" si="5"/>
         <v>8.3003059029579121E-2</v>
       </c>
-      <c r="O26" s="52">
+      <c r="O26" s="22">
         <f t="shared" si="5"/>
         <v>4.03891007105509E-2</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P26" s="44">
         <f t="shared" si="5"/>
         <v>6.2619166759153161E-3</v>
       </c>
-      <c r="Q26" s="54">
+      <c r="Q26" s="45">
         <f t="shared" si="5"/>
         <v>7.9128618041674231E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="20" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:17" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="12">
         <v>24</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="52">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="53">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="53">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="49">
         <v>1.89602188766002E-2</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="50">
         <v>6.8918056786060301E-4</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="51">
         <v>2.6252249255776398E-2</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="49">
         <v>1.8877305090427399E-2</v>
       </c>
-      <c r="J27" s="57">
+      <c r="J27" s="50">
         <v>6.8032083800062505E-4</v>
       </c>
-      <c r="K27" s="58">
+      <c r="K27" s="51">
         <v>2.6082960888743401E-2</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="49">
         <v>1.89931914210319E-2</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="50">
         <v>6.7546515492722305E-4</v>
       </c>
-      <c r="N27" s="58">
+      <c r="N27" s="51">
         <v>2.59897131472826E-2</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O27" s="49">
         <v>1.8717905506491599E-2</v>
       </c>
-      <c r="P27" s="57">
+      <c r="P27" s="50">
         <v>6.6153053194284396E-4</v>
       </c>
-      <c r="Q27" s="58">
+      <c r="Q27" s="51">
         <v>2.5720234960317601E-2</v>
       </c>
     </row>
@@ -2261,49 +2228,49 @@
       <c r="B28" s="3">
         <v>48</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="22">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="44">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="44">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="25">
         <v>2.3614522069692601E-2</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="26">
         <v>9.9844660144299204E-4</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="27">
         <v>3.1598206609487499E-2</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="28">
         <v>2.2905623540282201E-2</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="23">
         <v>9.4932602951303103E-4</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="24">
         <v>3.0811134725809E-2</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="25">
         <v>2.5313993915915399E-2</v>
       </c>
-      <c r="M28" s="39">
+      <c r="M28" s="26">
         <v>1.13694032188504E-3</v>
       </c>
-      <c r="N28" s="40">
+      <c r="N28" s="27">
         <v>3.3718544989824198E-2</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="25">
         <v>2.33765263110399E-2</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="26">
         <v>9.7302102949470195E-4</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="Q28" s="27">
         <v>3.1193284317851001E-2</v>
       </c>
     </row>
@@ -2311,49 +2278,49 @@
       <c r="B29" s="3">
         <v>96</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="22">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="23">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="23">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="25">
         <v>2.9598770663142201E-2</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="26">
         <v>1.42921216320246E-3</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="27">
         <v>3.7804923951625803E-2</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="25">
         <v>2.6595311239361701E-2</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="26">
         <v>1.2388912728056301E-3</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="27">
         <v>3.5197887569665902E-2</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="25">
         <v>3.1745262444019297E-2</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="26">
         <v>1.6765590989962201E-3</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="27">
         <v>4.0945805609226199E-2</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="28">
         <v>2.91491635143756E-2</v>
       </c>
-      <c r="P29" s="42">
+      <c r="P29" s="26">
         <v>1.4336106833070499E-3</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="27">
         <v>3.7863053381443003E-2</v>
       </c>
     </row>
@@ -2361,117 +2328,117 @@
       <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="28">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="23">
         <f t="shared" ref="D30:Q30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="23">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="22">
         <f t="shared" si="6"/>
         <v>2.4057837203144999E-2</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="44">
         <f t="shared" si="6"/>
         <v>1.0389464441686851E-3</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="44">
         <f t="shared" si="6"/>
         <v>3.18851266056299E-2</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="22">
         <f t="shared" si="6"/>
         <v>2.2792746623357101E-2</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="44">
         <f t="shared" si="6"/>
         <v>9.5617938010642868E-4</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="44">
         <f t="shared" si="6"/>
         <v>3.0697327728072765E-2</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="22">
         <f t="shared" si="6"/>
         <v>2.5350815926988863E-2</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="44">
         <f t="shared" si="6"/>
         <v>1.162988191936161E-3</v>
       </c>
-      <c r="N30" s="53">
+      <c r="N30" s="44">
         <f t="shared" si="6"/>
         <v>3.3551354582110997E-2</v>
       </c>
-      <c r="O30" s="52">
+      <c r="O30" s="22">
         <f t="shared" si="6"/>
         <v>2.3747865110635702E-2</v>
       </c>
-      <c r="P30" s="55">
+      <c r="P30" s="44">
         <f t="shared" si="6"/>
         <v>1.0227207482481986E-3</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="45">
         <f t="shared" si="6"/>
         <v>3.1592190886537204E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="35">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="36">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="36">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="38">
         <v>1.8998576328158299E-2</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="39">
         <v>6.8325561005622105E-4</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="40">
         <v>2.6139158755540799E-2</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="38">
         <v>1.8121792003512299E-2</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="39">
         <v>6.2581745442003001E-4</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="40">
         <v>2.5016343221068299E-2</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="38">
         <v>1.8728464841842599E-2</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="39">
         <v>6.6108600003644802E-4</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="40">
         <v>2.57115922868251E-2</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="38">
         <v>1.8413078039884501E-2</v>
       </c>
-      <c r="P31" s="47">
+      <c r="P31" s="39">
         <v>6.5994902979582505E-4</v>
       </c>
-      <c r="Q31" s="48">
+      <c r="Q31" s="40">
         <v>2.5689473375678E-2</v>
       </c>
     </row>
@@ -2479,49 +2446,49 @@
       <c r="B32" s="3">
         <v>48</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="22">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="23">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="23">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="25">
         <v>2.26310119032859E-2</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="26">
         <v>8.9270889293402401E-4</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="27">
         <v>2.9878234490752199E-2</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="28">
         <v>2.1246971562504699E-2</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="26">
         <v>8.1900606164708701E-4</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="27">
         <v>2.8618281707167601E-2</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="25">
         <v>2.2992128506302799E-2</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="26">
         <v>9.4971287762746204E-4</v>
       </c>
-      <c r="N32" s="40">
+      <c r="N32" s="27">
         <v>3.0817411839961999E-2</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="25">
         <v>2.1941686049103699E-2</v>
       </c>
-      <c r="P32" s="42">
+      <c r="P32" s="26">
         <v>8.6203665705397703E-4</v>
       </c>
-      <c r="Q32" s="40">
+      <c r="Q32" s="27">
         <v>2.93604601174592E-2</v>
       </c>
     </row>
@@ -2529,49 +2496,49 @@
       <c r="B33" s="3">
         <v>96</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="22">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="44">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="44">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="25">
         <v>2.37818080931901E-2</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="26">
         <v>1.01070362143218E-3</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="27">
         <v>3.1791564077138901E-2</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="28">
         <v>2.2637242451310099E-2</v>
       </c>
-      <c r="J33" s="62">
+      <c r="J33" s="23">
         <v>9.3249033670872396E-4</v>
       </c>
-      <c r="K33" s="63">
+      <c r="K33" s="24">
         <v>3.0536705628037401E-2</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="25">
         <v>2.5457691401243199E-2</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="26">
         <v>1.1614374816417601E-3</v>
       </c>
-      <c r="N33" s="40">
+      <c r="N33" s="27">
         <v>3.4079868346452699E-2</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="25">
         <v>2.3907091468572599E-2</v>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="26">
         <v>1.0148914298042601E-3</v>
       </c>
-      <c r="Q33" s="40">
+      <c r="Q33" s="27">
         <v>3.18573601543903E-2</v>
       </c>
     </row>
@@ -2579,117 +2546,117 @@
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="22">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="44">
         <f t="shared" ref="D34:Q34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="44">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="22">
         <f t="shared" si="7"/>
         <v>2.1803798774878102E-2</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="44">
         <f t="shared" si="7"/>
         <v>8.6222270814080831E-4</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="44">
         <f t="shared" si="7"/>
         <v>2.9269652441143965E-2</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="28">
         <f t="shared" si="7"/>
         <v>2.0668668672442367E-2</v>
       </c>
-      <c r="J34" s="62">
+      <c r="J34" s="23">
         <f t="shared" si="7"/>
         <v>7.9243795092528036E-4</v>
       </c>
-      <c r="K34" s="62">
+      <c r="K34" s="23">
         <f t="shared" si="7"/>
         <v>2.8057110185424432E-2</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="22">
         <f t="shared" si="7"/>
         <v>2.2392761583129531E-2</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M34" s="44">
         <f t="shared" si="7"/>
         <v>9.2407878643522342E-4</v>
       </c>
-      <c r="N34" s="53">
+      <c r="N34" s="44">
         <f t="shared" si="7"/>
         <v>3.0202957491079933E-2</v>
       </c>
-      <c r="O34" s="52">
+      <c r="O34" s="22">
         <f t="shared" si="7"/>
         <v>2.1420618519186932E-2</v>
       </c>
-      <c r="P34" s="55">
+      <c r="P34" s="44">
         <f t="shared" si="7"/>
         <v>8.4562570555135402E-4</v>
       </c>
-      <c r="Q34" s="54">
+      <c r="Q34" s="45">
         <f t="shared" si="7"/>
         <v>2.8969097882509166E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>24</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="35">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="36">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="36">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="38">
         <v>1.6641713678836802E-2</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="39">
         <v>5.5738835362717498E-4</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="40">
         <v>2.3609073832631101E-2</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="38">
         <v>1.64120011031627E-2</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="39">
         <v>5.5329594761133096E-4</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="40">
         <v>2.3522242903709401E-2</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="38">
         <v>1.63750555366277E-2</v>
       </c>
-      <c r="M35" s="47">
+      <c r="M35" s="39">
         <v>5.5307237198576299E-4</v>
       </c>
-      <c r="N35" s="48">
+      <c r="N35" s="40">
         <v>2.3517491295933699E-2</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="38">
         <v>1.6425851732492398E-2</v>
       </c>
-      <c r="P35" s="47">
+      <c r="P35" s="39">
         <v>5.5078824516385696E-4</v>
       </c>
-      <c r="Q35" s="48">
+      <c r="Q35" s="40">
         <v>2.34688781201839E-2</v>
       </c>
     </row>
@@ -2697,49 +2664,49 @@
       <c r="B36" s="3">
         <v>48</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="28">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="23">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="23">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="25">
         <v>1.8231838941574E-2</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="26">
         <v>6.7056377884000496E-4</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="27">
         <v>2.5895245373248998E-2</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="25">
         <v>1.80826131254434E-2</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="26">
         <v>6.6337088355794495E-4</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="27">
         <v>2.5755986571311899E-2</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="25">
         <v>1.9916031509637801E-2</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="26">
         <v>7.63464660849422E-4</v>
       </c>
-      <c r="N36" s="40">
+      <c r="N36" s="27">
         <v>2.76308637112379E-2</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="25">
         <v>1.82049460709095E-2</v>
       </c>
-      <c r="P36" s="42">
+      <c r="P36" s="26">
         <v>6.6712277475744399E-4</v>
       </c>
-      <c r="Q36" s="40">
+      <c r="Q36" s="27">
         <v>2.58287191390991E-2</v>
       </c>
     </row>
@@ -2747,49 +2714,49 @@
       <c r="B37" s="3">
         <v>96</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="28">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="23">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="23">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="25">
         <v>2.07943059504032E-2</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="26">
         <v>8.5297890473157102E-4</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="27">
         <v>2.9205802828073502E-2</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="25">
         <v>2.0559759810566899E-2</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="26">
         <v>8.2638638559728796E-4</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="27">
         <v>2.8746936470270101E-2</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="25">
         <v>2.2938961163163098E-2</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="26">
         <v>1.01795513182878E-3</v>
       </c>
-      <c r="N37" s="40">
+      <c r="N37" s="27">
         <v>3.1905408948659897E-2</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="25">
         <v>2.0585192367434502E-2</v>
       </c>
-      <c r="P37" s="42">
+      <c r="P37" s="26">
         <v>8.2616438157856399E-4</v>
       </c>
-      <c r="Q37" s="40">
+      <c r="Q37" s="27">
         <v>2.8743075206875801E-2</v>
       </c>
     </row>
@@ -2797,115 +2764,115 @@
       <c r="B38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="28">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="23">
         <f t="shared" ref="D38:Q38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="23">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="22">
         <f t="shared" si="8"/>
         <v>1.8555952856938E-2</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="44">
         <f t="shared" si="8"/>
         <v>6.9364367906625047E-4</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="44">
         <f t="shared" si="8"/>
         <v>2.6236707344651198E-2</v>
       </c>
-      <c r="I38" s="52">
+      <c r="I38" s="22">
         <f t="shared" si="8"/>
         <v>1.8351458013057667E-2</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="44">
         <f t="shared" si="8"/>
         <v>6.8101773892218799E-4</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="44">
         <f t="shared" si="8"/>
         <v>2.6008388648430469E-2</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="22">
         <f t="shared" si="8"/>
         <v>1.974334940314287E-2</v>
       </c>
-      <c r="M38" s="53">
+      <c r="M38" s="44">
         <f t="shared" si="8"/>
         <v>7.7816405488798839E-4</v>
       </c>
-      <c r="N38" s="53">
+      <c r="N38" s="44">
         <f t="shared" si="8"/>
         <v>2.7684587985277165E-2</v>
       </c>
-      <c r="O38" s="52">
+      <c r="O38" s="22">
         <f t="shared" si="8"/>
         <v>1.8405330056945467E-2</v>
       </c>
-      <c r="P38" s="55">
+      <c r="P38" s="44">
         <f t="shared" si="8"/>
         <v>6.8135846716662165E-4</v>
       </c>
-      <c r="Q38" s="54">
+      <c r="Q38" s="45">
         <f t="shared" si="8"/>
         <v>2.6013557488719599E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="20" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:17" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="26">
+      <c r="B39" s="21"/>
+      <c r="C39" s="14">
         <v>28</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="15">
         <v>28</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="16">
         <v>28</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="13">
         <v>0</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="11">
         <v>4</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="12">
         <v>4</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="13">
         <v>6</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="11">
         <v>3</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="12">
         <v>3</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="13">
         <v>0</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="11">
         <v>0</v>
       </c>
-      <c r="N39" s="21">
+      <c r="N39" s="12">
         <v>0</v>
       </c>
-      <c r="O39" s="22">
+      <c r="O39" s="13">
         <v>2</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P39" s="11">
         <v>1</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="12">
         <v>1</v>
       </c>
     </row>

--- a/消融实验结果统计.xlsx
+++ b/消融实验结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\科研\论文\基于多维注意力的电力系统时序数据预测\算例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430FD425-8513-4103-B133-3AFAAB16BD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F7A5FD-01CE-4431-B81E-FBB402B30C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="25600" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>pred_len</t>
   </si>
@@ -108,15 +108,24 @@
     <t>1st Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2nd Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Count </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +155,23 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -311,172 +337,241 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,2126 +853,2231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="55"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="8.6640625" style="3"/>
-    <col min="6" max="6" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="8.6640625" style="55"/>
     <col min="7" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="8.6640625" style="3"/>
-    <col min="9" max="9" width="8.6640625" style="2"/>
-    <col min="10" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="8.6640625" style="3"/>
-    <col min="12" max="12" width="8.6640625" style="2"/>
-    <col min="13" max="13" width="8.6640625" style="1"/>
-    <col min="14" max="14" width="8.6640625" style="3"/>
-    <col min="15" max="15" width="8.6640625" style="2"/>
-    <col min="16" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="8.6640625" style="3"/>
+    <col min="8" max="8" width="8.6640625" style="2"/>
+    <col min="9" max="9" width="10.08203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="17" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="17" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>24</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="9">
         <v>0.11655319482088</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="10">
         <v>2.7306107804179101E-2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="11">
         <v>0.16524559259414601</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="12">
         <v>0.120327</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="13">
         <v>2.8596E-2</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="14">
         <v>0.169104</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="15">
         <v>0.11629399999999999</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="16">
         <v>2.7459000000000001E-2</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="17">
         <v>0.16570699999999999</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="12">
         <v>0.11901200000000001</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="13">
         <v>2.8039000000000001E-2</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="14">
         <v>0.16744899999999999</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="12">
         <v>0.11896900000000001</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="13">
         <v>2.8368999999999998E-2</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="14">
         <v>0.168432</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>48</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="15">
         <v>0.1230104342103</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="10">
         <v>2.9524529352784101E-2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="11">
         <v>0.171827033162117</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="12">
         <v>0.13214699999999999</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="13">
         <v>3.2337999999999999E-2</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="14">
         <v>0.17982699999999999</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="12">
         <v>0.125414</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="13">
         <v>2.9864000000000002E-2</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="14">
         <v>0.17281299999999999</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="12">
         <v>0.132991</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="13">
         <v>3.3369999999999997E-2</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="14">
         <v>0.182674</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="56">
         <v>0.12370100000000001</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="16">
         <v>2.9826999999999999E-2</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="17">
         <v>0.172706</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>96</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="15">
         <v>0.13076274096965701</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="10">
         <v>3.2509464770555399E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="11">
         <v>0.18030381202697701</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="12">
         <v>0.133135</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="13">
         <v>3.3119999999999997E-2</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="14">
         <v>0.18198800000000001</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="56">
         <v>0.132354</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="16">
         <v>3.2955999999999999E-2</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="17">
         <v>0.181538</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="12">
         <v>0.15079899999999999</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="13">
         <v>3.9958E-2</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="14">
         <v>0.19989499999999999</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="12">
         <v>0.13486200000000001</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="13">
         <v>3.3713E-2</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="14">
         <v>0.18361</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="18">
         <f>AVERAGE(C3:C5)</f>
         <v>0.12344212333361233</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="19">
         <f t="shared" ref="D6:Q6" si="0">AVERAGE(D3:D5)</f>
         <v>2.9780033975839532E-2</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
         <v>0.17245881259441334</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>0.12853633333333334</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>3.1351333333333335E-2</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
         <v>0.17697300000000002</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="57">
         <f t="shared" si="0"/>
         <v>0.12468733333333333</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="58">
         <f t="shared" si="0"/>
         <v>3.0092999999999998E-2</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="59">
         <f t="shared" si="0"/>
         <v>0.17335266666666668</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="21">
         <f t="shared" si="0"/>
         <v>0.13426733333333332</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="22">
         <f t="shared" si="0"/>
         <v>3.3789E-2</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="23">
         <f t="shared" si="0"/>
         <v>0.1833393333333333</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="21">
         <f t="shared" si="0"/>
         <v>0.12584399999999998</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="22">
         <f t="shared" si="0"/>
         <v>3.0636333333333331E-2</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="23">
         <f t="shared" si="0"/>
         <v>0.17491599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:17" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="25">
         <v>24</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>0.12985345721244801</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="27">
         <v>3.1856678426265703E-2</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="28">
         <v>0.17848439514636899</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="60">
         <v>0.13042500000000001</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="61">
         <v>3.1951E-2</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="62">
         <v>0.17874899999999999</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="29">
         <v>0.130944</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="30">
         <v>3.2077000000000001E-2</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="31">
         <v>0.17910000000000001</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="29">
         <v>0.136963</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="30">
         <v>3.4204999999999999E-2</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="31">
         <v>0.184947</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="29">
         <v>0.13136300000000001</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="30">
         <v>3.2424000000000001E-2</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="31">
         <v>0.180065</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>48</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="15">
         <v>0.12899044156074499</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="10">
         <v>3.2135039567947297E-2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="11">
         <v>0.17926248908042899</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="12">
         <v>0.136106</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="13">
         <v>3.4556999999999997E-2</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="14">
         <v>0.185895</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="12">
         <v>0.13350500000000001</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="13">
         <v>3.3446999999999998E-2</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="14">
         <v>0.18288499999999999</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="12">
         <v>0.137493</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="13">
         <v>3.5031E-2</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="14">
         <v>0.187165</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="56">
         <v>0.132522</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="16">
         <v>3.3352E-2</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="17">
         <v>0.18262700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>96</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="15">
         <v>0.13227391242980899</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="10">
         <v>3.3048331737518297E-2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="11">
         <v>0.18179200589656799</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="12">
         <v>0.141123</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="13">
         <v>3.6353999999999997E-2</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="14">
         <v>0.190668</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="12">
         <v>0.13598199999999999</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="13">
         <v>3.4543999999999998E-2</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="14">
         <v>0.185859</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="12">
         <v>0.14963499999999999</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="13">
         <v>3.9805E-2</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="14">
         <v>0.19951199999999999</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="56">
         <v>0.13303000000000001</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="16">
         <v>3.3294999999999998E-2</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="17">
         <v>0.18246799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:17" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="18">
         <f>AVERAGE(C7:C9)</f>
         <v>0.13037260373433401</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="19">
         <f>AVERAGE(D7:D9)</f>
         <v>3.2346683243910428E-2</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="20">
         <f t="shared" ref="E10:Q10" si="1">AVERAGE(E7:E9)</f>
         <v>0.17984629670778865</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="34">
         <f t="shared" si="1"/>
         <v>0.13588466666666668</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="35">
         <f t="shared" si="1"/>
         <v>3.4287333333333329E-2</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="36">
         <f t="shared" si="1"/>
         <v>0.18510400000000002</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="34">
         <f t="shared" si="1"/>
         <v>0.13347700000000001</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="35">
         <f t="shared" si="1"/>
         <v>3.3355999999999997E-2</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="36">
         <f t="shared" si="1"/>
         <v>0.18261466666666668</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="34">
         <f t="shared" si="1"/>
         <v>0.14136366666666667</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="35">
         <f t="shared" si="1"/>
         <v>3.6346999999999997E-2</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="36">
         <f t="shared" si="1"/>
         <v>0.19054133333333334</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="63">
         <f t="shared" si="1"/>
         <v>0.13230500000000001</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="64">
         <f t="shared" si="1"/>
         <v>3.3023666666666666E-2</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="65">
         <f t="shared" si="1"/>
         <v>0.18171999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <v>0.130949437618255</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="27">
         <v>3.1894195824861499E-2</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="28">
         <v>0.178589463233947</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="56">
         <v>0.132267996668815</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="13">
         <v>3.2453984022140503E-2</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="14">
         <v>0.18014989793300601</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="12">
         <v>0.13249793648719699</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="16">
         <v>3.2400872558355297E-2</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="17">
         <v>0.18000242114067</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="12">
         <v>0.14085702598094901</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="13">
         <v>3.5485893487930298E-2</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="14">
         <v>0.18837699294090199</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="12">
         <v>0.13249734044075001</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="13">
         <v>3.2574217766523299E-2</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="14">
         <v>0.18048329651355699</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>48</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="15">
         <v>0.136193811893463</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="10">
         <v>3.3979825675487497E-2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="11">
         <v>0.18433617055416099</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="12">
         <v>0.13935665786266299</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="13">
         <v>3.4776080399751601E-2</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="14">
         <v>0.18648345768451599</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="56">
         <v>0.13695621490478499</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="16">
         <v>3.4273173660039902E-2</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="17">
         <v>0.185130149126052</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="12">
         <v>0.15267913043498901</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="13">
         <v>4.0454253554344101E-2</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="14">
         <v>0.201132431626319</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="12">
         <v>0.13994543254375399</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="13">
         <v>3.54488715529441E-2</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="14">
         <v>0.18827870488166801</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+    <row r="13" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>96</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="15">
         <v>0.13881157338619199</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="10">
         <v>3.5383198410272598E-2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="11">
         <v>0.188104227185249</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="56">
         <v>0.14120377600192999</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="16">
         <v>3.61713804304599E-2</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="17">
         <v>0.190187752246856</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="12">
         <v>0.14897474646568201</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="13">
         <v>3.8393545895814798E-2</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="14">
         <v>0.19594271481037101</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="12">
         <v>0.15807057917118</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="13">
         <v>4.3243978172540602E-2</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="14">
         <v>0.20795185863971699</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="12">
         <v>0.14456957578658999</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="13">
         <v>3.7420883774757302E-2</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="14">
         <v>0.193444788455963</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="15">
         <f>AVERAGE(C11:C13)</f>
         <v>0.13531827429930332</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="10">
         <f t="shared" ref="D14:Q14" si="2">AVERAGE(D11:D13)</f>
         <v>3.3752406636873865E-2</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="11">
         <f t="shared" si="2"/>
         <v>0.18367662032445234</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="9">
         <f t="shared" si="2"/>
         <v>0.13760947684446934</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="66">
         <f t="shared" si="2"/>
         <v>3.4467148284117337E-2</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="67">
         <f t="shared" si="2"/>
         <v>0.18560703595479267</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="37">
         <f t="shared" si="2"/>
         <v>0.13947629928588801</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="38">
         <f t="shared" si="2"/>
         <v>3.5022530704736668E-2</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="39">
         <f t="shared" si="2"/>
         <v>0.18702509502569767</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="37">
         <f t="shared" si="2"/>
         <v>0.15053557852903934</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="38">
         <f t="shared" si="2"/>
         <v>3.9728041738271665E-2</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="39">
         <f t="shared" si="2"/>
         <v>0.19915376106897931</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="37">
         <f t="shared" si="2"/>
         <v>0.13900411625703135</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="38">
         <f t="shared" si="2"/>
         <v>3.5147991031408234E-2</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="39">
         <f t="shared" si="2"/>
         <v>0.18740226328372933</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:17" s="40" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="41">
         <v>24</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="42">
         <v>3.7347428500652299E-2</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="69">
         <v>6.1462405137717698E-3</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="70">
         <v>7.8397959470748901E-2</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="43">
         <v>3.8753999999999997E-2</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="44">
         <v>6.352E-3</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="45">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="46">
         <v>3.7189E-2</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="44">
         <v>6.1770000000000002E-3</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="45">
         <v>7.8594999999999998E-2</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="43">
         <v>3.9495000000000002E-2</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="44">
         <v>6.2560000000000003E-3</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="45">
         <v>7.9097000000000001E-2</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="68">
         <v>3.7275999999999997E-2</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="47">
         <v>6.11E-3</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="48">
         <v>7.8163999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
         <v>48</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="15">
         <v>3.8360789418220499E-2</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="66">
         <v>6.1233453452587102E-3</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="67">
         <v>7.8251808881759602E-2</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="56">
         <v>3.9119000000000001E-2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="10">
         <v>6.0809999999999996E-3</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="11">
         <v>7.7981999999999996E-2</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="37">
         <v>3.9220999999999999E-2</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="13">
         <v>6.169E-3</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="14">
         <v>7.8546000000000005E-2</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="12">
         <v>4.1679000000000001E-2</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="13">
         <v>6.5079999999999999E-3</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="14">
         <v>8.0673999999999996E-2</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="12">
         <v>3.9109999999999999E-2</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="13">
         <v>6.1640000000000002E-3</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="14">
         <v>7.8508999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>96</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="15">
         <v>3.8529902696609497E-2</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="10">
         <v>6.0955644585192204E-3</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="11">
         <v>7.8074097633361803E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="12">
         <v>4.1554000000000001E-2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="16">
         <v>6.3369999999999998E-3</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="17">
         <v>7.9607999999999998E-2</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="37">
         <v>4.2533000000000001E-2</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="13">
         <v>6.8120000000000003E-3</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="14">
         <v>8.2535999999999998E-2</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="12">
         <v>4.3813999999999999E-2</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="13">
         <v>6.9319999999999998E-3</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="14">
         <v>8.3259E-2</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="56">
         <v>4.0398000000000003E-2</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="13">
         <v>6.463E-3</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="14">
         <v>8.0392000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="1:17" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="18">
         <f>AVERAGE(C15:C17)</f>
         <v>3.8079373538494103E-2</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="19">
         <f t="shared" ref="D18:Q18" si="3">AVERAGE(D15:D17)</f>
         <v>6.1217167725165665E-3</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="20">
         <f t="shared" si="3"/>
         <v>7.8241288661956773E-2</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="34">
         <f t="shared" si="3"/>
         <v>3.9809000000000004E-2</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="35">
         <f t="shared" si="3"/>
         <v>6.2566666666666665E-3</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="36">
         <f t="shared" si="3"/>
         <v>7.9096666666666662E-2</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="34">
         <f t="shared" si="3"/>
         <v>3.9647666666666671E-2</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="35">
         <f t="shared" si="3"/>
         <v>6.3860000000000002E-3</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
         <v>7.9892333333333329E-2</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="34">
         <f t="shared" si="3"/>
         <v>4.166266666666666E-2</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="35">
         <f t="shared" si="3"/>
         <v>6.5653333333333336E-3</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="36">
         <f t="shared" si="3"/>
         <v>8.1009999999999999E-2</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="63">
         <f t="shared" si="3"/>
         <v>3.8927999999999997E-2</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="64">
         <f t="shared" si="3"/>
         <v>6.2456666666666667E-3</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="65">
         <f t="shared" si="3"/>
         <v>7.9021666666666671E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:17" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="25">
         <v>24</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="26">
         <v>3.8187548518180799E-2</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="27">
         <v>6.1322455294430204E-3</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="28">
         <v>7.8308656811714103E-2</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="29">
         <v>4.0704999999999998E-2</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="61">
         <v>6.2430000000000003E-3</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="62">
         <v>7.9009999999999997E-2</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="71">
         <v>3.9593999999999997E-2</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="30">
         <v>6.2529999999999999E-3</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="31">
         <v>7.9074000000000005E-2</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="29">
         <v>4.0729000000000001E-2</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="30">
         <v>6.4260000000000003E-3</v>
       </c>
-      <c r="N19" s="40">
+      <c r="N19" s="31">
         <v>8.0159999999999995E-2</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="29">
         <v>3.9806000000000001E-2</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="30">
         <v>6.2620000000000002E-3</v>
       </c>
-      <c r="Q19" s="40">
+      <c r="Q19" s="31">
         <v>7.9135999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
         <v>48</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="15">
         <v>3.9353840053081499E-2</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="66">
         <v>6.1575532890856197E-3</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="67">
         <v>7.8470081090927096E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="56">
         <v>4.0011999999999999E-2</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="10">
         <v>5.9100000000000003E-3</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="11">
         <v>7.6873999999999998E-2</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="37">
         <v>4.1147999999999997E-2</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="13">
         <v>6.3150000000000003E-3</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="14">
         <v>7.9465999999999995E-2</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="12">
         <v>4.1945000000000003E-2</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="13">
         <v>6.5919999999999998E-3</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="14">
         <v>8.1190999999999999E-2</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="12">
         <v>4.0365999999999999E-2</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="13">
         <v>6.195E-3</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="14">
         <v>7.8709000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>96</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="15">
         <v>3.94344069063663E-2</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="66">
         <v>6.1644776724278901E-3</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="67">
         <v>7.8514188528060899E-2</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="56">
         <v>4.0099000000000003E-2</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="10">
         <v>5.9940000000000002E-3</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="11">
         <v>7.7418000000000001E-2</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="12">
         <v>4.1829999999999999E-2</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="13">
         <v>6.9040000000000004E-3</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="14">
         <v>8.3087999999999995E-2</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="12">
         <v>4.4707999999999998E-2</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="13">
         <v>6.9230000000000003E-3</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="14">
         <v>8.3204E-2</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="12">
         <v>4.0162000000000003E-2</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="13">
         <v>6.4180000000000001E-3</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="14">
         <v>8.0111000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:17" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="18">
         <f>AVERAGE(C19:C21)</f>
         <v>3.8991931825876201E-2</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="64">
         <f t="shared" ref="D22:Q22" si="4">AVERAGE(D19:D21)</f>
         <v>6.1514254969855103E-3</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="65">
         <f t="shared" si="4"/>
         <v>7.8430975476900699E-2</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="34">
         <f t="shared" si="4"/>
         <v>4.0272000000000002E-2</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="19">
         <f t="shared" si="4"/>
         <v>6.0489999999999997E-3</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="20">
         <f t="shared" si="4"/>
         <v>7.7767333333333341E-2</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="34">
         <f t="shared" si="4"/>
         <v>4.0857333333333329E-2</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="35">
         <f t="shared" si="4"/>
         <v>6.4906666666666663E-3</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K22" s="36">
         <f t="shared" si="4"/>
         <v>8.0542666666666665E-2</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="34">
         <f t="shared" si="4"/>
         <v>4.2460666666666667E-2</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="35">
         <f t="shared" si="4"/>
         <v>6.6470000000000001E-3</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="36">
         <f t="shared" si="4"/>
         <v>8.1518333333333332E-2</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="63">
         <f t="shared" si="4"/>
         <v>4.0111333333333332E-2</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="35">
         <f t="shared" si="4"/>
         <v>6.2916666666666668E-3</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="36">
         <f t="shared" si="4"/>
         <v>7.9318666666666662E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="26">
         <v>3.8539212197065298E-2</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="27">
         <v>5.9217507950961503E-3</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="28">
         <v>7.69529119133949E-2</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="12">
         <v>4.0582798421382897E-2</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="13">
         <v>6.3216532580554399E-3</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="14">
         <v>7.9508826136588995E-2</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="56">
         <v>3.9034359157085398E-2</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="16">
         <v>6.07768865302205E-3</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="17">
         <v>7.7959530055522905E-2</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="12">
         <v>4.2591895908117197E-2</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="13">
         <v>6.6067804582417003E-3</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="14">
         <v>8.1282101571559906E-2</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="12">
         <v>3.9725478738546302E-2</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="13">
         <v>6.3425307162106002E-3</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="14">
         <v>7.9640008509159005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>48</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="15">
         <v>3.9741411805152803E-2</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="10">
         <v>6.0138301923870997E-3</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="11">
         <v>7.7548891305923406E-2</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="12">
         <v>4.2023394256830202E-2</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="13">
         <v>6.1471303924918097E-3</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="14">
         <v>7.8403636813163702E-2</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="12">
         <v>4.18001040816307E-2</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="66">
         <v>6.1094439588487096E-3</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="67">
         <v>7.8162930905818898E-2</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="12">
         <v>4.4313747435808098E-2</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="13">
         <v>6.86982739716768E-3</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="14">
         <v>8.2884423434734303E-2</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="56">
         <v>4.1370373219251598E-2</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="72">
         <v>6.35089306160807E-3</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="14">
         <v>7.9692490398883806E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>96</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="9">
         <v>4.0421377867460202E-2</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="10">
         <v>6.0362918302416801E-3</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="11">
         <v>7.7693574130535098E-2</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="12">
         <v>4.26099300384521E-2</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="13">
         <v>6.4076744019985199E-3</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="14">
         <v>8.0047950148582403E-2</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="12">
         <v>4.1659776121377903E-2</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="13">
         <v>6.2938230112194998E-3</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="14">
         <v>7.9333618283271706E-2</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="12">
         <v>4.5678116381168303E-2</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="13">
         <v>7.1982750669121699E-3</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="14">
         <v>8.4842652082443196E-2</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="15">
         <v>4.00714501738548E-2</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="16">
         <v>6.0923262499272797E-3</v>
       </c>
-      <c r="Q25" s="27">
+      <c r="Q25" s="17">
         <v>7.8053355216979897E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="15">
         <f>AVERAGE(C23:C25)</f>
         <v>3.9567333956559432E-2</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="10">
         <f t="shared" ref="D26:Q26" si="5">AVERAGE(D23:D25)</f>
         <v>5.9906242725749764E-3</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="11">
         <f t="shared" si="5"/>
         <v>7.7398459116617802E-2</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="37">
         <f t="shared" si="5"/>
         <v>4.1738707572221728E-2</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="38">
         <f t="shared" si="5"/>
         <v>6.2921526841819226E-3</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="39">
         <f t="shared" si="5"/>
         <v>7.9320137699445029E-2</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="37">
         <f t="shared" si="5"/>
         <v>4.0831413120031336E-2</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="66">
         <f t="shared" si="5"/>
         <v>6.1603185410300867E-3</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="67">
         <f t="shared" si="5"/>
         <v>7.8485359748204503E-2</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="37">
         <f t="shared" si="5"/>
         <v>4.4194586575031197E-2</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="38">
         <f t="shared" si="5"/>
         <v>6.8916276407738506E-3</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="39">
         <f t="shared" si="5"/>
         <v>8.3003059029579121E-2</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="9">
         <f t="shared" si="5"/>
         <v>4.03891007105509E-2</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="38">
         <f t="shared" si="5"/>
         <v>6.2619166759153161E-3</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="39">
         <f t="shared" si="5"/>
         <v>7.9128618041674231E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:17" s="40" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="41">
         <v>24</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="46">
         <v>1.8416857346892301E-2</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="47">
         <v>6.4510153606534004E-4</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="47">
         <v>2.5398848578333799E-2</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="43">
         <v>1.89602188766002E-2</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="44">
         <v>6.8918056786060301E-4</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="45">
         <v>2.6252249255776398E-2</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="43">
         <v>1.8877305090427399E-2</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="44">
         <v>6.8032083800062505E-4</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="45">
         <v>2.6082960888743401E-2</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="43">
         <v>1.89931914210319E-2</v>
       </c>
-      <c r="M27" s="50">
+      <c r="M27" s="44">
         <v>6.7546515492722305E-4</v>
       </c>
-      <c r="N27" s="51">
+      <c r="N27" s="45">
         <v>2.59897131472826E-2</v>
       </c>
-      <c r="O27" s="49">
+      <c r="O27" s="68">
         <v>1.8717905506491599E-2</v>
       </c>
-      <c r="P27" s="50">
+      <c r="P27" s="73">
         <v>6.6153053194284396E-4</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="74">
         <v>2.5720234960317601E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
         <v>48</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="9">
         <v>2.3212268948554899E-2</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="66">
         <v>9.6889137057587504E-4</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="66">
         <v>3.1127020716667099E-2</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="12">
         <v>2.3614522069692601E-2</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="13">
         <v>9.9844660144299204E-4</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="14">
         <v>3.1598206609487499E-2</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="15">
         <v>2.2905623540282201E-2</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="10">
         <v>9.4932602951303103E-4</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="11">
         <v>3.0811134725809E-2</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="12">
         <v>2.5313993915915399E-2</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="13">
         <v>1.13694032188504E-3</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="14">
         <v>3.3718544989824198E-2</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="12">
         <v>2.33765263110399E-2</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="13">
         <v>9.7302102949470195E-4</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="14">
         <v>3.1193284317851001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
+    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>96</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="9">
         <v>2.6290317997336301E-2</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="10">
         <v>1.2118930462747799E-3</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="10">
         <v>3.4812252968549701E-2</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="12">
         <v>2.9598770663142201E-2</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="13">
         <v>1.42921216320246E-3</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="14">
         <v>3.7804923951625803E-2</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="12">
         <v>2.6595311239361701E-2</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="16">
         <v>1.2388912728056301E-3</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="17">
         <v>3.5197887569665902E-2</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="12">
         <v>3.1745262444019297E-2</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="13">
         <v>1.6765590989962201E-3</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="14">
         <v>4.0945805609226199E-2</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="15">
         <v>2.91491635143756E-2</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="13">
         <v>1.4336106833070499E-3</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="14">
         <v>3.7863053381443003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="15">
         <f>AVERAGE(C27:C29)</f>
         <v>2.2639814764261166E-2</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="10">
         <f t="shared" ref="D30:Q30" si="6">AVERAGE(D27:D29)</f>
         <v>9.4196198430533163E-4</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="10">
         <f t="shared" si="6"/>
         <v>3.0446040754516863E-2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="37">
         <f t="shared" si="6"/>
         <v>2.4057837203144999E-2</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="38">
         <f t="shared" si="6"/>
         <v>1.0389464441686851E-3</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="38">
         <f t="shared" si="6"/>
         <v>3.18851266056299E-2</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="9">
         <f t="shared" si="6"/>
         <v>2.2792746623357101E-2</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="66">
         <f t="shared" si="6"/>
         <v>9.5617938010642868E-4</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="66">
         <f t="shared" si="6"/>
         <v>3.0697327728072765E-2</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="37">
         <f t="shared" si="6"/>
         <v>2.5350815926988863E-2</v>
       </c>
-      <c r="M30" s="44">
+      <c r="M30" s="38">
         <f t="shared" si="6"/>
         <v>1.162988191936161E-3</v>
       </c>
-      <c r="N30" s="44">
+      <c r="N30" s="38">
         <f t="shared" si="6"/>
         <v>3.3551354582110997E-2</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="37">
         <f t="shared" si="6"/>
         <v>2.3747865110635702E-2</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="38">
         <f t="shared" si="6"/>
         <v>1.0227207482481986E-3</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="39">
         <f t="shared" si="6"/>
         <v>3.1592190886537204E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:17" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="25">
         <v>24</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="26">
         <v>1.8019666895270299E-2</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="27">
         <v>6.1920157168060498E-4</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="27">
         <v>2.4883762001991199E-2</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="29">
         <v>1.8998576328158299E-2</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="30">
         <v>6.8325561005622105E-4</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="31">
         <v>2.6139158755540799E-2</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="60">
         <v>1.8121792003512299E-2</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="61">
         <v>6.2581745442003001E-4</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="62">
         <v>2.5016343221068299E-2</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="29">
         <v>1.8728464841842599E-2</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="30">
         <v>6.6108600003644802E-4</v>
       </c>
-      <c r="N31" s="40">
+      <c r="N31" s="31">
         <v>2.57115922868251E-2</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="29">
         <v>1.8413078039884501E-2</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="30">
         <v>6.5994902979582505E-4</v>
       </c>
-      <c r="Q31" s="40">
+      <c r="Q31" s="31">
         <v>2.5689473375678E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
+    <row r="32" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>48</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="9">
         <v>2.1260784938931399E-2</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="10">
         <v>8.1665714969858495E-4</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="10">
         <v>2.8577214106917301E-2</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="12">
         <v>2.26310119032859E-2</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="13">
         <v>8.9270889293402401E-4</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="14">
         <v>2.9878234490752199E-2</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="15">
         <v>2.1246971562504699E-2</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="16">
         <v>8.1900606164708701E-4</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="17">
         <v>2.8618281707167601E-2</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="12">
         <v>2.2992128506302799E-2</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="13">
         <v>9.4971287762746204E-4</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="14">
         <v>3.0817411839961999E-2</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="12">
         <v>2.1941686049103699E-2</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="13">
         <v>8.6203665705397703E-4</v>
       </c>
-      <c r="Q32" s="27">
+      <c r="Q32" s="14">
         <v>2.93604601174592E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
+    <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>96</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="9">
         <v>2.2915853187441802E-2</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="66">
         <v>9.53608483541756E-4</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="66">
         <v>3.0880551785230598E-2</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="12">
         <v>2.37818080931901E-2</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="13">
         <v>1.01070362143218E-3</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="14">
         <v>3.1791564077138901E-2</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="15">
         <v>2.2637242451310099E-2</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="10">
         <v>9.3249033670872396E-4</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="11">
         <v>3.0536705628037401E-2</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="12">
         <v>2.5457691401243199E-2</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="13">
         <v>1.1614374816417601E-3</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="14">
         <v>3.4079868346452699E-2</v>
       </c>
-      <c r="O33" s="25">
+      <c r="O33" s="12">
         <v>2.3907091468572599E-2</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="13">
         <v>1.0148914298042601E-3</v>
       </c>
-      <c r="Q33" s="27">
+      <c r="Q33" s="14">
         <v>3.18573601543903E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="9">
         <f>AVERAGE(C31:C33)</f>
         <v>2.0732101673881165E-2</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="66">
         <f t="shared" ref="D34:Q34" si="7">AVERAGE(D31:D33)</f>
         <v>7.9648906830698198E-4</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="66">
         <f t="shared" si="7"/>
         <v>2.8113842631379699E-2</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="37">
         <f t="shared" si="7"/>
         <v>2.1803798774878102E-2</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="38">
         <f t="shared" si="7"/>
         <v>8.6222270814080831E-4</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="38">
         <f t="shared" si="7"/>
         <v>2.9269652441143965E-2</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="15">
         <f t="shared" si="7"/>
         <v>2.0668668672442367E-2</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="10">
         <f t="shared" si="7"/>
         <v>7.9243795092528036E-4</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="10">
         <f t="shared" si="7"/>
         <v>2.8057110185424432E-2</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="37">
         <f t="shared" si="7"/>
         <v>2.2392761583129531E-2</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="38">
         <f t="shared" si="7"/>
         <v>9.2407878643522342E-4</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="38">
         <f t="shared" si="7"/>
         <v>3.0202957491079933E-2</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="37">
         <f t="shared" si="7"/>
         <v>2.1420618519186932E-2</v>
       </c>
-      <c r="P34" s="44">
+      <c r="P34" s="38">
         <f t="shared" si="7"/>
         <v>8.4562570555135402E-4</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="39">
         <f t="shared" si="7"/>
         <v>2.8969097882509166E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:18" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="25">
         <v>24</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="26">
         <v>1.6250062733888598E-2</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="27">
         <v>5.4900307441130205E-4</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="27">
         <v>2.34308149665594E-2</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="29">
         <v>1.6641713678836802E-2</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="30">
         <v>5.5738835362717498E-4</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="31">
         <v>2.3609073832631101E-2</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="29">
         <v>1.64120011031627E-2</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="30">
         <v>5.5329594761133096E-4</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35" s="31">
         <v>2.3522242903709401E-2</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="60">
         <v>1.63750555366277E-2</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="30">
         <v>5.5307237198576299E-4</v>
       </c>
-      <c r="N35" s="40">
+      <c r="N35" s="31">
         <v>2.3517491295933699E-2</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="29">
         <v>1.6425851732492398E-2</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35" s="61">
         <v>5.5078824516385696E-4</v>
       </c>
-      <c r="Q35" s="40">
+      <c r="Q35" s="62">
         <v>2.34688781201839E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
+    <row r="36" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
         <v>48</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="15">
         <v>1.7871698364615399E-2</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="10">
         <v>6.4205413218587604E-4</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="10">
         <v>2.5338787585496899E-2</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="12">
         <v>1.8231838941574E-2</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="13">
         <v>6.7056377884000496E-4</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="14">
         <v>2.5895245373248998E-2</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="56">
         <v>1.80826131254434E-2</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="16">
         <v>6.6337088355794495E-4</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="17">
         <v>2.5755986571311899E-2</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="12">
         <v>1.9916031509637801E-2</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="13">
         <v>7.63464660849422E-4</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="14">
         <v>2.76308637112379E-2</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="12">
         <v>1.82049460709095E-2</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="13">
         <v>6.6712277475744399E-4</v>
       </c>
-      <c r="Q36" s="27">
+      <c r="Q36" s="14">
         <v>2.58287191390991E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
+    <row r="37" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
         <v>96</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="15">
         <v>2.0298028364777499E-2</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="10">
         <v>8.1362412311136701E-4</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="10">
         <v>2.85240970551967E-2</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="12">
         <v>2.07943059504032E-2</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="13">
         <v>8.5297890473157102E-4</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="14">
         <v>2.9205802828073502E-2</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="56">
         <v>2.0559759810566899E-2</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="13">
         <v>8.2638638559728796E-4</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="14">
         <v>2.8746936470270101E-2</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="12">
         <v>2.2938961163163098E-2</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="13">
         <v>1.01795513182878E-3</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="14">
         <v>3.1905408948659897E-2</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O37" s="12">
         <v>2.0585192367434502E-2</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="16">
         <v>8.2616438157856399E-4</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="17">
         <v>2.8743075206875801E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="15">
         <f>AVERAGE(C35:C37)</f>
         <v>1.8139929821093831E-2</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="10">
         <f t="shared" ref="D38:Q38" si="8">AVERAGE(D35:D37)</f>
         <v>6.682271099028484E-4</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="10">
         <f t="shared" si="8"/>
         <v>2.5764566535750998E-2</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="37">
         <f t="shared" si="8"/>
         <v>1.8555952856938E-2</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="38">
         <f t="shared" si="8"/>
         <v>6.9364367906625047E-4</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="38">
         <f t="shared" si="8"/>
         <v>2.6236707344651198E-2</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="9">
         <f t="shared" si="8"/>
         <v>1.8351458013057667E-2</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="66">
         <f t="shared" si="8"/>
         <v>6.8101773892218799E-4</v>
       </c>
-      <c r="K38" s="44">
+      <c r="K38" s="66">
         <f t="shared" si="8"/>
         <v>2.6008388648430469E-2</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="37">
         <f t="shared" si="8"/>
         <v>1.974334940314287E-2</v>
       </c>
-      <c r="M38" s="44">
+      <c r="M38" s="38">
         <f t="shared" si="8"/>
         <v>7.7816405488798839E-4</v>
       </c>
-      <c r="N38" s="44">
+      <c r="N38" s="38">
         <f t="shared" si="8"/>
         <v>2.7684587985277165E-2</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O38" s="37">
         <f t="shared" si="8"/>
         <v>1.8405330056945467E-2</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="38">
         <f t="shared" si="8"/>
         <v>6.8135846716662165E-4</v>
       </c>
-      <c r="Q38" s="45">
+      <c r="Q38" s="39">
         <f t="shared" si="8"/>
         <v>2.6013557488719599E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="11" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="R38" s="75"/>
+    </row>
+    <row r="39" spans="1:18" s="40" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="14">
+      <c r="B39" s="50"/>
+      <c r="C39" s="51">
         <v>28</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="52">
         <v>28</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="53">
         <v>28</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="54">
         <v>0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="40">
         <v>4</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="41">
         <v>4</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="54">
         <v>6</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="40">
         <v>3</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="41">
         <v>3</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="54">
         <v>0</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="40">
         <v>0</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="41">
         <v>0</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="54">
         <v>2</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="40">
         <v>1</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="41">
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="55">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="55">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+      <c r="I40" s="55">
+        <v>10</v>
+      </c>
+      <c r="J40" s="77">
+        <v>14</v>
+      </c>
+      <c r="K40" s="78">
+        <v>14</v>
+      </c>
+      <c r="L40" s="55">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="76">
+        <v>11</v>
+      </c>
+      <c r="P40" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="76">
+        <v>35</v>
+      </c>
+      <c r="D41" s="77">
+        <v>36</v>
+      </c>
+      <c r="E41" s="78">
+        <v>36</v>
+      </c>
+      <c r="F41" s="55">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9</v>
+      </c>
+      <c r="H41" s="2">
+        <v>9</v>
+      </c>
+      <c r="I41" s="55">
+        <v>16</v>
+      </c>
+      <c r="J41" s="1">
+        <v>17</v>
+      </c>
+      <c r="K41" s="2">
+        <v>17</v>
+      </c>
+      <c r="L41" s="55">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="55">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C1:E1"/>
